--- a/data/hotels_by_city/Denver/Denver_shard_138.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_138.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="665">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33412-d225299-Reviews-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
   </si>
   <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Holiday-Inn-Express-Suites-Denver-Tech-Center-Englewood.h474441.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1895 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r584186818-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33412</t>
+  </si>
+  <si>
+    <t>225299</t>
+  </si>
+  <si>
+    <t>584186818</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Hotel needs updating</t>
+  </si>
+  <si>
+    <t>We stay at Holiday Inn Express hotels across the U.S. and this hotel needs updating.  Our room was noisy and the TV local stations and HBO didn't work.  When we mentioned this to the agent at check-out, though, we were treated very well.  The hotel just needs to be updated.  The bathroom light was very dim and hard to put on make-up.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r582920575-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>582920575</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrible Experience </t>
+  </si>
+  <si>
+    <t>Arrived to room without working air conditioner. Sent someone to look at and unable to repair. Asked for another room and was offered at fan and recommended to open the window, mind you it’s over 90 degrees outside and that is not what I paid for. Check In was 3:00pm and still waiting for new room at 6:00pm. Unprofessional front desk clerk instead giving excuses such as had to make phone calls and others are waiting too.  It what you want to hear when you are hit and tired. Attendant also walking around at 2 in afternoon with house shoes on?? Not the place to stay. I understand things do happen and a broken air conditioner not her fault but handled very poorly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived to room without working air conditioner. Sent someone to look at and unable to repair. Asked for another room and was offered at fan and recommended to open the window, mind you it’s over 90 degrees outside and that is not what I paid for. Check In was 3:00pm and still waiting for new room at 6:00pm. Unprofessional front desk clerk instead giving excuses such as had to make phone calls and others are waiting too.  It what you want to hear when you are hit and tired. Attendant also walking around at 2 in afternoon with house shoes on?? Not the place to stay. I understand things do happen and a broken air conditioner not her fault but handled very poorly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r579918981-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>579918981</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Unprofessional Staff, Unreliable services</t>
+  </si>
+  <si>
+    <t>Our initial impression of this hotel was nothing different from the reviews I read online. The staff were very friendly, helpful, and accommodating. The rooms were clean, spacious, and fit exactly what we wanted in our potentially extended stay. 
+The first signs of problems came during the second or third day. A housekeeper spoke to us and stated that she wanted to clean our room but could not because of the “green program” we had signed up for. We explained to her that we had not signed up for anything and wanted a cleaning, but she explained we would have to talk to the front desk. Due to my late and random hours of work and not being able to speak with the management, I decided that I would write an email (1. It was written down 2. Had a record of it). I went through the app and attempted to send an email. The email was returned because the email address was not valid. That morning when I returned back to the hotel I spoke with a front desk staff member who gave me the email address of the manager that I could speak to. This was the email address she provided me “denew.hiexdtc.com” Sitting on the counter was a business card with what appeared to be the managers contact information. I attempted to email the manager via the information on the business card and could not because that...Our initial impression of this hotel was nothing different from the reviews I read online. The staff were very friendly, helpful, and accommodating. The rooms were clean, spacious, and fit exactly what we wanted in our potentially extended stay. The first signs of problems came during the second or third day. A housekeeper spoke to us and stated that she wanted to clean our room but could not because of the “green program” we had signed up for. We explained to her that we had not signed up for anything and wanted a cleaning, but she explained we would have to talk to the front desk. Due to my late and random hours of work and not being able to speak with the management, I decided that I would write an email (1. It was written down 2. Had a record of it). I went through the app and attempted to send an email. The email was returned because the email address was not valid. That morning when I returned back to the hotel I spoke with a front desk staff member who gave me the email address of the manager that I could speak to. This was the email address she provided me “denew.hiexdtc.com” Sitting on the counter was a business card with what appeared to be the managers contact information. I attempted to email the manager via the information on the business card and could not because that email was returned as an invalid email address. I never was able to speak with a manager about the cleaning schedule, and when we attempted to speak with staff we always got told we were scheduled the next day. The second incident occurred on day two. I had notified the front desk that one of the two TVs in the room was not working. The two female front desk employees stated they would have someone come look at it. When the maintenance staff arrived, they attempted to work on the TV but stated he would have to speak to the manager to have the TV replaced. On our day of check-out which is day six or seven there had been no other mention of the TV. The third incident occurred on day five or six. As of day five or six we had not received any full cleaning (only been handed towels by the front desk) the sheets had not been changed, no mention by any staff member as to why we are not receiving cleaning. We went to the front desk and asked about a cleaning, the front desk staff stated that because the cleaner who was scheduled to clean our room was allergic to dogs (we have a certified service animal) she would not be cleaning. She stated that they had us scheduled to be cleaned the next day at 2pm. The next morning, the day of our check out at 9am someone knocked on our door to have the room cleaned. The last and overall incident that I have been having at this location is with the billing. On the third night of our stay my credit card was charged 4 times (in the middle of the night). Someone the next morning attempted to tell me that I was looking at the wrong dates, and that those were just authorizations, but when she said she would look “the back way” she began to apologize and stated I was correct. To this day those charges have not been reversed and I have since had to turn that (company) credit card off for fraudulent activity. On the night that I decided to no longer stay at the hotel, I had cancelled all of our reservations. I received email confirmations of all cancellations. The next morning when I looked at my IHG account, I noticed a reservation had been made (and almost for double what I was normally paying) without my authorization. Also my credit card had an attempted charge on it. This all happened in the middle of the night. The sad thing about all this is that the property itself is fine. The rooms are nice, location is great. It is the staff that I truly have a problem with. I find that they are making excuses for things in what I feel is an effort to just get me out of their face. I would say the property is clean except that we in our six-day stay we never received any cleaning. I also find the random credit card charges in the middle of the night very suspicious. Overall not happy with this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Dinah S, General Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Our initial impression of this hotel was nothing different from the reviews I read online. The staff were very friendly, helpful, and accommodating. The rooms were clean, spacious, and fit exactly what we wanted in our potentially extended stay. 
+The first signs of problems came during the second or third day. A housekeeper spoke to us and stated that she wanted to clean our room but could not because of the “green program” we had signed up for. We explained to her that we had not signed up for anything and wanted a cleaning, but she explained we would have to talk to the front desk. Due to my late and random hours of work and not being able to speak with the management, I decided that I would write an email (1. It was written down 2. Had a record of it). I went through the app and attempted to send an email. The email was returned because the email address was not valid. That morning when I returned back to the hotel I spoke with a front desk staff member who gave me the email address of the manager that I could speak to. This was the email address she provided me “denew.hiexdtc.com” Sitting on the counter was a business card with what appeared to be the managers contact information. I attempted to email the manager via the information on the business card and could not because that...Our initial impression of this hotel was nothing different from the reviews I read online. The staff were very friendly, helpful, and accommodating. The rooms were clean, spacious, and fit exactly what we wanted in our potentially extended stay. The first signs of problems came during the second or third day. A housekeeper spoke to us and stated that she wanted to clean our room but could not because of the “green program” we had signed up for. We explained to her that we had not signed up for anything and wanted a cleaning, but she explained we would have to talk to the front desk. Due to my late and random hours of work and not being able to speak with the management, I decided that I would write an email (1. It was written down 2. Had a record of it). I went through the app and attempted to send an email. The email was returned because the email address was not valid. That morning when I returned back to the hotel I spoke with a front desk staff member who gave me the email address of the manager that I could speak to. This was the email address she provided me “denew.hiexdtc.com” Sitting on the counter was a business card with what appeared to be the managers contact information. I attempted to email the manager via the information on the business card and could not because that email was returned as an invalid email address. I never was able to speak with a manager about the cleaning schedule, and when we attempted to speak with staff we always got told we were scheduled the next day. The second incident occurred on day two. I had notified the front desk that one of the two TVs in the room was not working. The two female front desk employees stated they would have someone come look at it. When the maintenance staff arrived, they attempted to work on the TV but stated he would have to speak to the manager to have the TV replaced. On our day of check-out which is day six or seven there had been no other mention of the TV. The third incident occurred on day five or six. As of day five or six we had not received any full cleaning (only been handed towels by the front desk) the sheets had not been changed, no mention by any staff member as to why we are not receiving cleaning. We went to the front desk and asked about a cleaning, the front desk staff stated that because the cleaner who was scheduled to clean our room was allergic to dogs (we have a certified service animal) she would not be cleaning. She stated that they had us scheduled to be cleaned the next day at 2pm. The next morning, the day of our check out at 9am someone knocked on our door to have the room cleaned. The last and overall incident that I have been having at this location is with the billing. On the third night of our stay my credit card was charged 4 times (in the middle of the night). Someone the next morning attempted to tell me that I was looking at the wrong dates, and that those were just authorizations, but when she said she would look “the back way” she began to apologize and stated I was correct. To this day those charges have not been reversed and I have since had to turn that (company) credit card off for fraudulent activity. On the night that I decided to no longer stay at the hotel, I had cancelled all of our reservations. I received email confirmations of all cancellations. The next morning when I looked at my IHG account, I noticed a reservation had been made (and almost for double what I was normally paying) without my authorization. Also my credit card had an attempted charge on it. This all happened in the middle of the night. The sad thing about all this is that the property itself is fine. The rooms are nice, location is great. It is the staff that I truly have a problem with. I find that they are making excuses for things in what I feel is an effort to just get me out of their face. I would say the property is clean except that we in our six-day stay we never received any cleaning. I also find the random credit card charges in the middle of the night very suspicious. Overall not happy with this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r528589956-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>528589956</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel.</t>
+  </si>
+  <si>
+    <t>The staff was vey good; front desk, breakfast workers, maintenance and maids very friendly and helpful. Room was nice and exceptionally clean. Convinent to easy access to many locations. Breakfast was well stocked and fresh,too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r521457346-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>521457346</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Clean Budget Friendly Hotel</t>
+  </si>
+  <si>
+    <t>My husband and I visited this hotel August 31-September 2. My brother was getting married and negotiated a great rate for all the guest to stay at this hotel. It was a small wedding... 40 or so people. The staff was friendly. They allowed us to check in two hours early. We didn't have any problems... the check in was quick and easy.The room was clean and had a decent amount of space. It had a fridge, iron and microwave. The bed was very comfortable and I liked the soft pillows. There was a Kuerig coffee maker with 3 cups each day. The free breakfast is great. It had cereal, oatmeal, cinnamon rolls, several flavors of yogurt, fruit, eggs, sausage, pastries, and bagels. I thought that there was plenty of choices and it was well stocked. The hotel offered a shuttle that would drop you off and pick you up at locations within 3 miles of the hotel. This is only during the daytime hours. The hotel is about 1.5 miles from a mall and tons of restaurants. We didn't use it but it could be useful. Overall, we thought it was a nice hotel. We only paid $89 a night so it was definitely worth the amount we paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>My husband and I visited this hotel August 31-September 2. My brother was getting married and negotiated a great rate for all the guest to stay at this hotel. It was a small wedding... 40 or so people. The staff was friendly. They allowed us to check in two hours early. We didn't have any problems... the check in was quick and easy.The room was clean and had a decent amount of space. It had a fridge, iron and microwave. The bed was very comfortable and I liked the soft pillows. There was a Kuerig coffee maker with 3 cups each day. The free breakfast is great. It had cereal, oatmeal, cinnamon rolls, several flavors of yogurt, fruit, eggs, sausage, pastries, and bagels. I thought that there was plenty of choices and it was well stocked. The hotel offered a shuttle that would drop you off and pick you up at locations within 3 miles of the hotel. This is only during the daytime hours. The hotel is about 1.5 miles from a mall and tons of restaurants. We didn't use it but it could be useful. Overall, we thought it was a nice hotel. We only paid $89 a night so it was definitely worth the amount we paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r506308176-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>506308176</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit Disappointed </t>
+  </si>
+  <si>
+    <t>Reality new but the chair and couch were not very conformable ended up sitting and the beds which ok.  The China and glasses weren't. One of the reasons we picked this place was we were going to be stopping after a long day and didn't want to go out again once we arrived. However the restaurant was closed.  Nice bar,  but no happy hour. There are a number of other places in the area ...   MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Reality new but the chair and couch were not very conformable ended up sitting and the beds which ok.  The China and glasses weren't. One of the reasons we picked this place was we were going to be stopping after a long day and didn't want to go out again once we arrived. However the restaurant was closed.  Nice bar,  but no happy hour. There are a number of other places in the area ...   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r497412190-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>497412190</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Rough start, great stay</t>
+  </si>
+  <si>
+    <t>When we checked in it took us about 5 rooms until we finally found one that was really clean and not already occupied.  The hotel was having some problems and was showing rooms as clean that were not.  I understand things happen and the staff was very apologetic.  The general manager did offer to contact hotels.com (how we made our reservation) to compensate us for our trouble.  That never happened and I'm a little disappointed about being promised something that never happened.  Besides that the staff was great, friendly and extremely helpful.  They showed us how to use the light rail, offered restaurant suggestions, provided us with menu's etc.  I can't say enough great things about the staff.  The light rail stop is within walking distance but they were even nice enough to shuttle us over on our first trip.  They have some construction going on in the pool area but it's still open.  One suggestion would be to ditch the cheese omelettes off the breakfast bar.  They were so gross even my husband wouldn't touch them, and he eats everything.  Please just stick to scrambled eggs because at least they are edible.  I'd stay again.  It's clean, in a safe area and the staff was great.  Just wish the general manager would have followed through on her promise.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>When we checked in it took us about 5 rooms until we finally found one that was really clean and not already occupied.  The hotel was having some problems and was showing rooms as clean that were not.  I understand things happen and the staff was very apologetic.  The general manager did offer to contact hotels.com (how we made our reservation) to compensate us for our trouble.  That never happened and I'm a little disappointed about being promised something that never happened.  Besides that the staff was great, friendly and extremely helpful.  They showed us how to use the light rail, offered restaurant suggestions, provided us with menu's etc.  I can't say enough great things about the staff.  The light rail stop is within walking distance but they were even nice enough to shuttle us over on our first trip.  They have some construction going on in the pool area but it's still open.  One suggestion would be to ditch the cheese omelettes off the breakfast bar.  They were so gross even my husband wouldn't touch them, and he eats everything.  Please just stick to scrambled eggs because at least they are edible.  I'd stay again.  It's clean, in a safe area and the staff was great.  Just wish the general manager would have followed through on her promise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r494417783-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>494417783</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Everyone deserves better</t>
+  </si>
+  <si>
+    <t>Let me put it this way…the people that work here deserve better. They tried hard to please, but the hotel itself worked against them. We were first put in a room that had not been clean and appeared occupied. Desk clerk was very apologetic. She reassigned us to another room that had faulty air conditioning. Again an apology and we transferred to another room, and this time the air conditioning worked very well. We slept well despite the fact that the walls and ceilings were paper thin, and noise transferred all around us. Not the fault of the staff. We received a bill for the first night that was more than we contracted for. Plus we were scheduled to spend a second night there. The manager fixed the issue quickly. When we awoke after the second night, we found the tub filled with an inch of water from the drain. Sorry, goodbye, we won't be returning. MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me put it this way…the people that work here deserve better. They tried hard to please, but the hotel itself worked against them. We were first put in a room that had not been clean and appeared occupied. Desk clerk was very apologetic. She reassigned us to another room that had faulty air conditioning. Again an apology and we transferred to another room, and this time the air conditioning worked very well. We slept well despite the fact that the walls and ceilings were paper thin, and noise transferred all around us. Not the fault of the staff. We received a bill for the first night that was more than we contracted for. Plus we were scheduled to spend a second night there. The manager fixed the issue quickly. When we awoke after the second night, we found the tub filled with an inch of water from the drain. Sorry, goodbye, we won't be returning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r492858731-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>492858731</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Would Stay Again</t>
+  </si>
+  <si>
+    <t>I'd have no issues staying at this HIE again. If you're looking at this properly,  you're probably balancing price and location.  Price is reasonable for the area; location is very good.  Easy access to 25 for both Denver and Co Springs  (nothing I can do about the traffic),  close to a few local restaurants,  an awesome yoga studio (if you enjoy sweating buckets) , and Top Golf (which is a great time.)As others have said, breakfast area is smallish. Food selection is typical of HIE, and quality was fine. Pool was good for the kids.Front desk was direct - perhaps a bit less syrupy than other places - but were very helpful and addressed everything we needed.If you need a few days in the area and this property has the price you need, I think its a fair option.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>I'd have no issues staying at this HIE again. If you're looking at this properly,  you're probably balancing price and location.  Price is reasonable for the area; location is very good.  Easy access to 25 for both Denver and Co Springs  (nothing I can do about the traffic),  close to a few local restaurants,  an awesome yoga studio (if you enjoy sweating buckets) , and Top Golf (which is a great time.)As others have said, breakfast area is smallish. Food selection is typical of HIE, and quality was fine. Pool was good for the kids.Front desk was direct - perhaps a bit less syrupy than other places - but were very helpful and addressed everything we needed.If you need a few days in the area and this property has the price you need, I think its a fair option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r487818032-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>487818032</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Not the place to stay in Centennial or Englewood!</t>
+  </si>
+  <si>
+    <t>I wanted to give them a zero! Customer service is gone! Hotel faces some operational and service issues that lead to an unpleasant stay! I recently had back surgery and needed a cart to take my stuff to 4th floor room, there are 2 carts for 94 rooms. Long odds! Not sufficient. Then attempted to switch to 1st floor told no, then miraculously after we unpacked, here was one on a different system than the normal one???? Asked to speak to District mgr or VP not allowed to. Then finally, they hold $200 for each guest in case one of them smokes in a room and $20 incidentals in case you buy something. Should all guests be punished for rudeness and non adherence to rules?This place needs a service overall!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2017</t>
+  </si>
+  <si>
+    <t>I wanted to give them a zero! Customer service is gone! Hotel faces some operational and service issues that lead to an unpleasant stay! I recently had back surgery and needed a cart to take my stuff to 4th floor room, there are 2 carts for 94 rooms. Long odds! Not sufficient. Then attempted to switch to 1st floor told no, then miraculously after we unpacked, here was one on a different system than the normal one???? Asked to speak to District mgr or VP not allowed to. Then finally, they hold $200 for each guest in case one of them smokes in a room and $20 incidentals in case you buy something. Should all guests be punished for rudeness and non adherence to rules?This place needs a service overall!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r480098305-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>480098305</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Saved the day!</t>
+  </si>
+  <si>
+    <t>Clean large rooms, friendly staff, nice breakfast, fun pool.  Our stay was perfect.  When we made it to the zoo the morning after our stay, we realized we had left our son's stuffed kitty in the room.  The hotel staff went above and beyond to find it and make sure it was with our soon quickly.  We are very grateful!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Clean large rooms, friendly staff, nice breakfast, fun pool.  Our stay was perfect.  When we made it to the zoo the morning after our stay, we realized we had left our son's stuffed kitty in the room.  The hotel staff went above and beyond to find it and make sure it was with our soon quickly.  We are very grateful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r478213677-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>478213677</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>Underwhelming</t>
+  </si>
+  <si>
+    <t>After staying at the Hi in Richfield, Utah ( which was quite nice) this hotel was a disappointment. The carpets need replacing, the restrooms are tiny and the walls are thin! We woke up to a neighbors vibrating cell phone, crazy! Too bad the coffee/breakfast is too small.Anyway, the area is nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>After staying at the Hi in Richfield, Utah ( which was quite nice) this hotel was a disappointment. The carpets need replacing, the restrooms are tiny and the walls are thin! We woke up to a neighbors vibrating cell phone, crazy! Too bad the coffee/breakfast is too small.Anyway, the area is nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r442290912-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>442290912</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>Stayed for two nights. I was upgraded to a king suite which was great. Check in was smooth. Any request for houskeeping via phone call to front desk is futile as they never show up. Being HIE , i dont expect much but this incident was ridiculous. Their are many restaurants in walking distance. Breakfast was typical HIE.Hotel does look worn out from inside and atleast can change the carpets. I will only stay again if I have work in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded December 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2016</t>
+  </si>
+  <si>
+    <t>Stayed for two nights. I was upgraded to a king suite which was great. Check in was smooth. Any request for houskeeping via phone call to front desk is futile as they never show up. Being HIE , i dont expect much but this incident was ridiculous. Their are many restaurants in walking distance. Breakfast was typical HIE.Hotel does look worn out from inside and atleast can change the carpets. I will only stay again if I have work in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r430683811-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>430683811</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Terrible Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here with two friends. When we checked out, I looked at my bank statement and saw a $200 charge to my card from the hotel. I call them and they say that the charge was for smoking in the hotel room. I was extremely confused because my friends and I are smart enough to not smoke in the hotel room understanding that this is a non-smoking hotel. Every time we wanted to smoke, we went outside and did it far from the hotel. The manager told me they had found crumbs of marijuana in the room, but that does not mean we smoked in it. She then said it costs them $500 to get rid of the smell but I have a strong feeling they did not have to spend that money because the smell does not exist. We did not smoke in the hotel nor did we have enough marijuana to cause the smell to stay in the room. They turned "finding crumbs of marijuana" into "smoking in the hotel room". It's extremely disappointing because my friends and I are very responsible and for this to happen to us makes no sense. We were charged for something we DID NOT DO. Smokers beware, don't leave crumbs behind. DO NOT STAY AT THIS HOTEL.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here with two friends. When we checked out, I looked at my bank statement and saw a $200 charge to my card from the hotel. I call them and they say that the charge was for smoking in the hotel room. I was extremely confused because my friends and I are smart enough to not smoke in the hotel room understanding that this is a non-smoking hotel. Every time we wanted to smoke, we went outside and did it far from the hotel. The manager told me they had found crumbs of marijuana in the room, but that does not mean we smoked in it. She then said it costs them $500 to get rid of the smell but I have a strong feeling they did not have to spend that money because the smell does not exist. We did not smoke in the hotel nor did we have enough marijuana to cause the smell to stay in the room. They turned "finding crumbs of marijuana" into "smoking in the hotel room". It's extremely disappointing because my friends and I are very responsible and for this to happen to us makes no sense. We were charged for something we DID NOT DO. Smokers beware, don't leave crumbs behind. DO NOT STAY AT THIS HOTEL.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r428746516-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>428746516</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>After reading some of these reviews, I wasn't expecting much, but I was pleasantly surprised. I thought the lobby and hallways were clean and elegant looking. Our room was fine and had a large bathroom. A very nice selection at breakfast. An easy walk to Mangianno's or Landry's Seafood restaurants. For the price we paid I thought this suited our needs very well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r413699695-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>413699695</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military Families </t>
+  </si>
+  <si>
+    <t>This hotel is military family friendly. We stayed here in one room while our son and his family shared another room. The cookies were warm, the breakfast was good, and the coffee was tasty. The staff was very respectful of the reason we were there and they were very friendly as well. The beds are comfortable the rooms were nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Sonya T, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is military family friendly. We stayed here in one room while our son and his family shared another room. The cookies were warm, the breakfast was good, and the coffee was tasty. The staff was very respectful of the reason we were there and they were very friendly as well. The beds are comfortable the rooms were nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r403526583-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>403526583</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Good Place to stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 5 days and found good. This is a good property to stay here but I feel the property needs a revamp as  the carpets look pretty old. Front desk is very helpful. Location is at the convenient place. Breakfast is 'ok' type and not bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Sonya T, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for 5 days and found good. This is a good property to stay here but I feel the property needs a revamp as  the carpets look pretty old. Front desk is very helpful. Location is at the convenient place. Breakfast is 'ok' type and not bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r399376931-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>399376931</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Up your game</t>
+  </si>
+  <si>
+    <t>I am a spire level member of IHG rewards. As such I stay at IHG properties regularly and often. I have come to expect and appreciate a certain level of service and expertise. I understand the kind of traveler HIE markets to and generally find the service and amenities more than acceptable. Having said that, this property seems to constantly under perform. I stay at this property as much as I do at any HIE. Most years 15 to 30 nights. I recently had a stay there for three nights requiring 2 rooms.
+I choose this property because of the location and to collect the IHG Rewards points.
+The staff is generally friendly, but often poorly trained and uninformed. The turn over in staff seems to be very high, higher than other IHG properties I visit. 
+If you are an IHG member and want your Welcome Amenity points you may as well forget it. I rarely receive them at this location. 
+On my last visit a few weeks ago there was an issue with the satellite television system that was an issue for the entire three night stay. I was told that it would be resolved, but that never happened. As usual, I did not receive the 500 Welcome Amenity points that are offered Spire level members. I have sent two emails to the hotel with no response. 
+If you need a mid lever hotel located in the Denver Tech...I am a spire level member of IHG rewards. As such I stay at IHG properties regularly and often. I have come to expect and appreciate a certain level of service and expertise. I understand the kind of traveler HIE markets to and generally find the service and amenities more than acceptable. Having said that, this property seems to constantly under perform. I stay at this property as much as I do at any HIE. Most years 15 to 30 nights. I recently had a stay there for three nights requiring 2 rooms.I choose this property because of the location and to collect the IHG Rewards points.The staff is generally friendly, but often poorly trained and uninformed. The turn over in staff seems to be very high, higher than other IHG properties I visit. If you are an IHG member and want your Welcome Amenity points you may as well forget it. I rarely receive them at this location. On my last visit a few weeks ago there was an issue with the satellite television system that was an issue for the entire three night stay. I was told that it would be resolved, but that never happened. As usual, I did not receive the 500 Welcome Amenity points that are offered Spire level members. I have sent two emails to the hotel with no response. If you need a mid lever hotel located in the Denver Tech Center area, I recommend you try another hotel. I have decided to do so as it is not worth the aggravation.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>I am a spire level member of IHG rewards. As such I stay at IHG properties regularly and often. I have come to expect and appreciate a certain level of service and expertise. I understand the kind of traveler HIE markets to and generally find the service and amenities more than acceptable. Having said that, this property seems to constantly under perform. I stay at this property as much as I do at any HIE. Most years 15 to 30 nights. I recently had a stay there for three nights requiring 2 rooms.
+I choose this property because of the location and to collect the IHG Rewards points.
+The staff is generally friendly, but often poorly trained and uninformed. The turn over in staff seems to be very high, higher than other IHG properties I visit. 
+If you are an IHG member and want your Welcome Amenity points you may as well forget it. I rarely receive them at this location. 
+On my last visit a few weeks ago there was an issue with the satellite television system that was an issue for the entire three night stay. I was told that it would be resolved, but that never happened. As usual, I did not receive the 500 Welcome Amenity points that are offered Spire level members. I have sent two emails to the hotel with no response. 
+If you need a mid lever hotel located in the Denver Tech...I am a spire level member of IHG rewards. As such I stay at IHG properties regularly and often. I have come to expect and appreciate a certain level of service and expertise. I understand the kind of traveler HIE markets to and generally find the service and amenities more than acceptable. Having said that, this property seems to constantly under perform. I stay at this property as much as I do at any HIE. Most years 15 to 30 nights. I recently had a stay there for three nights requiring 2 rooms.I choose this property because of the location and to collect the IHG Rewards points.The staff is generally friendly, but often poorly trained and uninformed. The turn over in staff seems to be very high, higher than other IHG properties I visit. If you are an IHG member and want your Welcome Amenity points you may as well forget it. I rarely receive them at this location. On my last visit a few weeks ago there was an issue with the satellite television system that was an issue for the entire three night stay. I was told that it would be resolved, but that never happened. As usual, I did not receive the 500 Welcome Amenity points that are offered Spire level members. I have sent two emails to the hotel with no response. If you need a mid lever hotel located in the Denver Tech Center area, I recommend you try another hotel. I have decided to do so as it is not worth the aggravation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r386205277-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>386205277</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Good, comfortable hotel, let down by inadequate wifi.</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 10 nights in June. While the hotel is very comfortable with friendly staff there were a couple of aspects that detracted from a better score. On our arrival the smell,of chlorine from the swimming pool was bordering on being overpowering, fortunately it was less in our 2nd floor bedroom. The WiFi was variable, or non existent. I found that if my iPad was disconnected for more than a couple of hours it was necessary to reconnect with password etc. before using again. For the final 4 days of my stay there was no internet connection to either my iPad, or iPhone. Apparently this was not the case if using a laptop with Ethernet connection. Very disappointing and very frustrating. On one day I drove to the Holiday Inn Express at w. Indore Place, Littleton to connect to the Internet via wifi. However it is fair to say the hotel is superbly situated just a few hundred yards from I25 which is the route to everywhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Sonya T, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 10 nights in June. While the hotel is very comfortable with friendly staff there were a couple of aspects that detracted from a better score. On our arrival the smell,of chlorine from the swimming pool was bordering on being overpowering, fortunately it was less in our 2nd floor bedroom. The WiFi was variable, or non existent. I found that if my iPad was disconnected for more than a couple of hours it was necessary to reconnect with password etc. before using again. For the final 4 days of my stay there was no internet connection to either my iPad, or iPhone. Apparently this was not the case if using a laptop with Ethernet connection. Very disappointing and very frustrating. On one day I drove to the Holiday Inn Express at w. Indore Place, Littleton to connect to the Internet via wifi. However it is fair to say the hotel is superbly situated just a few hundred yards from I25 which is the route to everywhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r378328825-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>378328825</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>I stayed here with my family, and overall it was good. Room is kinda tiny, but has spacious bath room and the front desk staffs were very friendly. The pool is not that big if you see it in person, but other than that, it is in the best location in tech center area, and is very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Sonya T, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here with my family, and overall it was good. Room is kinda tiny, but has spacious bath room and the front desk staffs were very friendly. The pool is not that big if you see it in person, but other than that, it is in the best location in tech center area, and is very clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r374230464-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>374230464</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express &amp; Suites - DTC - Englewood, CO</t>
+  </si>
+  <si>
+    <t>The front desk staff are quite accommodating and say all the right things, and that is where it all stops.  The hotel is a bit older, however a nice job was done in making some updates.  My room was a suite which was nice, the TV remote for the living area television did not work, which I reported.  The following day I informed the front desk staff that the TV in the living area received at best 50% of the channels the bedroom TV received and the remote still did not work.  That evening when I returned to the hotel, I was informed it was a known issue with both the cable service and WiFi and the new management would be addressing the problems.  They offered me 10,000 points to be added to my rewards program for this inconvenience, which I accepted.  To date (checked out 2 weeks ago), I have not received the 10,000 points nor have I received the 300 welcome points I was told I would receive.  Then there is breakfast, I had to inform the front desk after waiting an unreasonable amount of time that there was no food.  The desk staff went to the person responsible for the food line and within a few more minutes, there was hot food. I choose to stay at Holiday Inn &amp; Express as I travel extensively around the country, but this was the worst experience I have ever...The front desk staff are quite accommodating and say all the right things, and that is where it all stops.  The hotel is a bit older, however a nice job was done in making some updates.  My room was a suite which was nice, the TV remote for the living area television did not work, which I reported.  The following day I informed the front desk staff that the TV in the living area received at best 50% of the channels the bedroom TV received and the remote still did not work.  That evening when I returned to the hotel, I was informed it was a known issue with both the cable service and WiFi and the new management would be addressing the problems.  They offered me 10,000 points to be added to my rewards program for this inconvenience, which I accepted.  To date (checked out 2 weeks ago), I have not received the 10,000 points nor have I received the 300 welcome points I was told I would receive.  Then there is breakfast, I had to inform the front desk after waiting an unreasonable amount of time that there was no food.  The desk staff went to the person responsible for the food line and within a few more minutes, there was hot food. I choose to stay at Holiday Inn &amp; Express as I travel extensively around the country, but this was the worst experience I have ever encountered and for that reason, I would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded June 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2016</t>
+  </si>
+  <si>
+    <t>The front desk staff are quite accommodating and say all the right things, and that is where it all stops.  The hotel is a bit older, however a nice job was done in making some updates.  My room was a suite which was nice, the TV remote for the living area television did not work, which I reported.  The following day I informed the front desk staff that the TV in the living area received at best 50% of the channels the bedroom TV received and the remote still did not work.  That evening when I returned to the hotel, I was informed it was a known issue with both the cable service and WiFi and the new management would be addressing the problems.  They offered me 10,000 points to be added to my rewards program for this inconvenience, which I accepted.  To date (checked out 2 weeks ago), I have not received the 10,000 points nor have I received the 300 welcome points I was told I would receive.  Then there is breakfast, I had to inform the front desk after waiting an unreasonable amount of time that there was no food.  The desk staff went to the person responsible for the food line and within a few more minutes, there was hot food. I choose to stay at Holiday Inn &amp; Express as I travel extensively around the country, but this was the worst experience I have ever...The front desk staff are quite accommodating and say all the right things, and that is where it all stops.  The hotel is a bit older, however a nice job was done in making some updates.  My room was a suite which was nice, the TV remote for the living area television did not work, which I reported.  The following day I informed the front desk staff that the TV in the living area received at best 50% of the channels the bedroom TV received and the remote still did not work.  That evening when I returned to the hotel, I was informed it was a known issue with both the cable service and WiFi and the new management would be addressing the problems.  They offered me 10,000 points to be added to my rewards program for this inconvenience, which I accepted.  To date (checked out 2 weeks ago), I have not received the 10,000 points nor have I received the 300 welcome points I was told I would receive.  Then there is breakfast, I had to inform the front desk after waiting an unreasonable amount of time that there was no food.  The desk staff went to the person responsible for the food line and within a few more minutes, there was hot food. I choose to stay at Holiday Inn &amp; Express as I travel extensively around the country, but this was the worst experience I have ever encountered and for that reason, I would not recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r362056313-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>362056313</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Feces on our bedding YUCK</t>
+  </si>
+  <si>
+    <t>OMG this place is disgusting.  We checked into room 208 and 206 had just put our bags down when my husband sat on the bed putting his hand in feces.  We called down to the front desk to complain.  They sent the cleaning staff up to change the bedding but we were unable to move rooms because we had two rooms with our children with us and there were no other rooms side by side.  We were told the manager was going to call us back which he never did.  Then the next morning when we went to check out the manager Joseph refused to comp us the room.  We were not even asking for both rooms just ours as we felt that was more than fair.  He started with offering a 20% discount we refused that.  He then went so far as to accuse us of putting the feces there because it was "fresh" and even called the cleaning lady over to tell us it was "fresh". We already knew that because my husband put his hand in it!!!!!! He then offered 50% then 60% but said he would get in trouble if he comped the room .  Joseph did not at anytime seem disturbed that his staff somehow missed feces on the bedding of his hotel not to mention the health hazard.  We left without accepting any kind of discount as it is not about the money it...OMG this place is disgusting.  We checked into room 208 and 206 had just put our bags down when my husband sat on the bed putting his hand in feces.  We called down to the front desk to complain.  They sent the cleaning staff up to change the bedding but we were unable to move rooms because we had two rooms with our children with us and there were no other rooms side by side.  We were told the manager was going to call us back which he never did.  Then the next morning when we went to check out the manager Joseph refused to comp us the room.  We were not even asking for both rooms just ours as we felt that was more than fair.  He started with offering a 20% discount we refused that.  He then went so far as to accuse us of putting the feces there because it was "fresh" and even called the cleaning lady over to tell us it was "fresh". We already knew that because my husband put his hand in it!!!!!! He then offered 50% then 60% but said he would get in trouble if he comped the room .  Joseph did not at anytime seem disturbed that his staff somehow missed feces on the bedding of his hotel not to mention the health hazard.  We left without accepting any kind of discount as it is not about the money it is about customer service.  We will also be contacting the Heath department as well.  Disgusting and shame on you Joseph the manger.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded May 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2016</t>
+  </si>
+  <si>
+    <t>OMG this place is disgusting.  We checked into room 208 and 206 had just put our bags down when my husband sat on the bed putting his hand in feces.  We called down to the front desk to complain.  They sent the cleaning staff up to change the bedding but we were unable to move rooms because we had two rooms with our children with us and there were no other rooms side by side.  We were told the manager was going to call us back which he never did.  Then the next morning when we went to check out the manager Joseph refused to comp us the room.  We were not even asking for both rooms just ours as we felt that was more than fair.  He started with offering a 20% discount we refused that.  He then went so far as to accuse us of putting the feces there because it was "fresh" and even called the cleaning lady over to tell us it was "fresh". We already knew that because my husband put his hand in it!!!!!! He then offered 50% then 60% but said he would get in trouble if he comped the room .  Joseph did not at anytime seem disturbed that his staff somehow missed feces on the bedding of his hotel not to mention the health hazard.  We left without accepting any kind of discount as it is not about the money it...OMG this place is disgusting.  We checked into room 208 and 206 had just put our bags down when my husband sat on the bed putting his hand in feces.  We called down to the front desk to complain.  They sent the cleaning staff up to change the bedding but we were unable to move rooms because we had two rooms with our children with us and there were no other rooms side by side.  We were told the manager was going to call us back which he never did.  Then the next morning when we went to check out the manager Joseph refused to comp us the room.  We were not even asking for both rooms just ours as we felt that was more than fair.  He started with offering a 20% discount we refused that.  He then went so far as to accuse us of putting the feces there because it was "fresh" and even called the cleaning lady over to tell us it was "fresh". We already knew that because my husband put his hand in it!!!!!! He then offered 50% then 60% but said he would get in trouble if he comped the room .  Joseph did not at anytime seem disturbed that his staff somehow missed feces on the bedding of his hotel not to mention the health hazard.  We left without accepting any kind of discount as it is not about the money it is about customer service.  We will also be contacting the Heath department as well.  Disgusting and shame on you Joseph the manger.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r359155354-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>359155354</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice Place </t>
+  </si>
+  <si>
+    <t>This is a nice hotel with very good customer service and fantastic location. Not far from interstate, shopping &amp; dining.  The indoor pool/hot tub is well maintained along with the rooms, hallways &amp; grounds. All this and a good price.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r355356663-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>355356663</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My stay leaves me not wanting to return </t>
+  </si>
+  <si>
+    <t>First room TV would not work, shower overhead was , looked like the ceiling was leaking.Hotel is dated and needs updating. Carpets especially are dated and worn .Staff friendly and accommodating , just the hotel is older and needs a new face lift .Not like a new holiday inn express experience !MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>First room TV would not work, shower overhead was , looked like the ceiling was leaking.Hotel is dated and needs updating. Carpets especially are dated and worn .Staff friendly and accommodating , just the hotel is older and needs a new face lift .Not like a new holiday inn express experience !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r337095325-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>337095325</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>It's a Holiday Inn Express!</t>
+  </si>
+  <si>
+    <t>I usually pick Holiday Inn properties for my business travels, mostly because prices are fair, they are predictable, reliable lodging alternatives.  This one is no different.  It was clean and comfortable.My only complaint is that there are not too many restaurant options within easy walking distance.  I took the Uber here, and there is an Italian place across the parking lot, but not many other options.No surprises, it's a Holiday Inn Express!</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r323157228-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>323157228</t>
+  </si>
+  <si>
+    <t>10/30/2015</t>
+  </si>
+  <si>
+    <t>service needs help</t>
+  </si>
+  <si>
+    <t>I chose this hotel mainly due to its location, near the site of an early morning breakfast meeting the following day. I arrived late and was found no one at the front desk. I waited a full five minutes. I finally called the hotel phone number, which brought someone from the back office out. The lady who checked me in was very friendly and apologized profusely. Check-out in the morning was surreal. The clerk seemed to be sleeping on a folded-up blanket on the desk when I checked out at 6:30. When I stated that I'd not received a receipt, he responded "well, you should have" and seemed to leave it at that. After I requested a receipt to be printed, he did so without a word. The facility was nice, the room was pleasant, and the location convenient. But wow, they need some service help.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded November 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2015</t>
+  </si>
+  <si>
+    <t>I chose this hotel mainly due to its location, near the site of an early morning breakfast meeting the following day. I arrived late and was found no one at the front desk. I waited a full five minutes. I finally called the hotel phone number, which brought someone from the back office out. The lady who checked me in was very friendly and apologized profusely. Check-out in the morning was surreal. The clerk seemed to be sleeping on a folded-up blanket on the desk when I checked out at 6:30. When I stated that I'd not received a receipt, he responded "well, you should have" and seemed to leave it at that. After I requested a receipt to be printed, he did so without a word. The facility was nice, the room was pleasant, and the location convenient. But wow, they need some service help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r321485104-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>321485104</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Family suite room</t>
+  </si>
+  <si>
+    <t>Rooms are pretty decent. Pool is good for kids and the hours are amazing 6am-12am. Family suite was good size but the bathroom is very small. Furniture is nice, beds are comfortable. Carpet looks very old and worn. Continental breakfast is always a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded November 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2015</t>
+  </si>
+  <si>
+    <t>Rooms are pretty decent. Pool is good for kids and the hours are amazing 6am-12am. Family suite was good size but the bathroom is very small. Furniture is nice, beds are comfortable. Carpet looks very old and worn. Continental breakfast is always a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r318435158-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>318435158</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>A great stay</t>
+  </si>
+  <si>
+    <t>I needed just a comfortable room for a family for a quick overnight stay so I picked the Holiday Inn Express. I like their family of hotels because they have clean rooms and offer a breakfast. Normally I am satisfied with everything but this place "wowed" me. We checked in later at night (around 9:30 p.m.). The front desk employee was cheerful and helpful. It was the start of a good night. When we got to the room we realized it was a little smaller than we hoped but a quick run downstairs found us upgraded to suite. The suite was great with room for a large family and all the extra you love like a fridge and microwave. The pool area was great and we had a fun time swimming and playing in the pool. The next morning was breakfast and I am always apprehensive as breakfast can vary a lot between hotels. When I went downstairs everything was full, breakfast was hot and actually tasted pretty good. Fresh biscuits and gravy, cinnamon rolls, make it yourself pancakes, fruits, juices and milk were just a small sampling. Again the breakfast area staff were cheerful and attentive. Overall this was an excellent stay and the fact that the staff were so pleasant made it even better.MoreShow less</t>
+  </si>
+  <si>
+    <t>I needed just a comfortable room for a family for a quick overnight stay so I picked the Holiday Inn Express. I like their family of hotels because they have clean rooms and offer a breakfast. Normally I am satisfied with everything but this place "wowed" me. We checked in later at night (around 9:30 p.m.). The front desk employee was cheerful and helpful. It was the start of a good night. When we got to the room we realized it was a little smaller than we hoped but a quick run downstairs found us upgraded to suite. The suite was great with room for a large family and all the extra you love like a fridge and microwave. The pool area was great and we had a fun time swimming and playing in the pool. The next morning was breakfast and I am always apprehensive as breakfast can vary a lot between hotels. When I went downstairs everything was full, breakfast was hot and actually tasted pretty good. Fresh biscuits and gravy, cinnamon rolls, make it yourself pancakes, fruits, juices and milk were just a small sampling. Again the breakfast area staff were cheerful and attentive. Overall this was an excellent stay and the fact that the staff were so pleasant made it even better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r318152036-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>318152036</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>A decent hotel for a brief stay. The a/c in the room ran all night but never cooled the room sufficiently. Lots of noise from the room above. Hot water takes a long time to get to the faucets. Front desk staff wasn't very engaging. Sufficient, well lit parking in a safe neighborhood. Close (within 5 miles) of many restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2015</t>
+  </si>
+  <si>
+    <t>A decent hotel for a brief stay. The a/c in the room ran all night but never cooled the room sufficiently. Lots of noise from the room above. Hot water takes a long time to get to the faucets. Front desk staff wasn't very engaging. Sufficient, well lit parking in a safe neighborhood. Close (within 5 miles) of many restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r288300224-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>288300224</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Very Good stay</t>
+  </si>
+  <si>
+    <t>We came to stay here after having a not so good stay at another hotel. The room was good and the beds were comfortable. The front desk staff was really friendly. We only stayed one night but it was good. Only thing I would say is I wish the shower head had stronger water pressure but the hot water supply was AMAZING!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r286432651-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>286432651</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, clean and great breakfast</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel in the Family Suite.  It was very roomy, clean and comfortable.  The breakfast int he morning was wonderful, with many choices for both the "health nuts" in our groups as well as the kiddos who wanted pancakes and sausage.This hotel was  very reasonably priced, had a nice staff, and was well worth our stay.  Plenty of places to eat close by as well.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r283754308-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>283754308</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Mrs. Reyes</t>
+  </si>
+  <si>
+    <t>Everything was wonderful overnight excellent. (Stay date 6/27/15-6/28/15)EXCEPT IN THE AM WHEN WE WERE SO RUDELY AWAKENED BY THE CLEANING STAFF.  I put my STAY RELAXED SIGN on the door before my son &amp; I went to bed the night before.  We had a long day traveling so we wanted to sleep in a bit. SO MUCH for that.  They didn't come once or twice knocking on our door but 3 times.  We left so tired so much for a great nights sleep.  P.S.  Check out is at noon I don't know why they come banging on doors @10:00 am.  I know they are doing there job but we work really hard too.  So we can splurge &amp; pamper ourselves to be able to travel and stay at nice places like these.  So disappointed MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Everything was wonderful overnight excellent. (Stay date 6/27/15-6/28/15)EXCEPT IN THE AM WHEN WE WERE SO RUDELY AWAKENED BY THE CLEANING STAFF.  I put my STAY RELAXED SIGN on the door before my son &amp; I went to bed the night before.  We had a long day traveling so we wanted to sleep in a bit. SO MUCH for that.  They didn't come once or twice knocking on our door but 3 times.  We left so tired so much for a great nights sleep.  P.S.  Check out is at noon I don't know why they come banging on doors @10:00 am.  I know they are doing there job but we work really hard too.  So we can splurge &amp; pamper ourselves to be able to travel and stay at nice places like these.  So disappointed More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r269146050-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>269146050</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Busy place</t>
+  </si>
+  <si>
+    <t>Englewood, Co. Is a busy place, it is about 20 miles outside of Denver.  BEST ADVICE I CAN GIVE ANYONE, STAY OFF THE FREEWAY I-25 during morning or evening rush hour, plan ahead, unless you LOVE traffic.  Motel is right off the freeway, exit 196 then stay to the left and turn left, at next light is Iversson, turn left and you'll see motel on your right.  We were given a handicap room #107, it is rather small, has couch and chair and eating table with separate bedroom, with queen bed,  bathroom has a tub, it is kind of high to get into would not work for those in wheelchair but large enough if you use wheelchair.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Chris P, General Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded May 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2015</t>
+  </si>
+  <si>
+    <t>Englewood, Co. Is a busy place, it is about 20 miles outside of Denver.  BEST ADVICE I CAN GIVE ANYONE, STAY OFF THE FREEWAY I-25 during morning or evening rush hour, plan ahead, unless you LOVE traffic.  Motel is right off the freeway, exit 196 then stay to the left and turn left, at next light is Iversson, turn left and you'll see motel on your right.  We were given a handicap room #107, it is rather small, has couch and chair and eating table with separate bedroom, with queen bed,  bathroom has a tub, it is kind of high to get into would not work for those in wheelchair but large enough if you use wheelchair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r239953627-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>239953627</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Sorry there is water all over the floor</t>
+  </si>
+  <si>
+    <t>This HI isn't the greatest I've stayed in but it wasn't terrible. After getting into the room,I wanted to call the front desk for additional pillows but the phone didn't work. No big deal except first the key didn't work. Then, when taking a shower the curtain wouldn't stay closed. Bottom line is that the maintenance department is lacking. The rest of the stay was very acceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded December 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2014</t>
+  </si>
+  <si>
+    <t>This HI isn't the greatest I've stayed in but it wasn't terrible. After getting into the room,I wanted to call the front desk for additional pillows but the phone didn't work. No big deal except first the key didn't work. Then, when taking a shower the curtain wouldn't stay closed. Bottom line is that the maintenance department is lacking. The rest of the stay was very acceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r239515890-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>239515890</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Clean, pretty quiet, nice room, friendly staff</t>
+  </si>
+  <si>
+    <t>On a recent business trip to Denver, I stayed at this Holiday Inn Express near the Centennial Airport southeast of Denver.  The hotel was easy find, had plenty of well-lit parking, and the desk clerk was very prompt, polite and professional.  My room was clean and very quiet, though a colleague had a room at the end of the hall, close to the interstate (I-25) and could hear some street noise when the TV was off.  The complimentary breakfast was very good and there was a nice selection of fruits, breads, cereals, and eggs/potatoes etc., though it was a bit crowded at 8:30AM.  The entire staff I met was very friendly and always quick to wish a “Good Morning” or “Welcome Back” each night.  The internet Wi-Fi was easy to access and pretty fast.  I also used the Business Center to print some documents and boarding passes, and everything there was easy to use and well stocked.  Overall a very nice hotel in a great location.MoreShow less</t>
+  </si>
+  <si>
+    <t>On a recent business trip to Denver, I stayed at this Holiday Inn Express near the Centennial Airport southeast of Denver.  The hotel was easy find, had plenty of well-lit parking, and the desk clerk was very prompt, polite and professional.  My room was clean and very quiet, though a colleague had a room at the end of the hall, close to the interstate (I-25) and could hear some street noise when the TV was off.  The complimentary breakfast was very good and there was a nice selection of fruits, breads, cereals, and eggs/potatoes etc., though it was a bit crowded at 8:30AM.  The entire staff I met was very friendly and always quick to wish a “Good Morning” or “Welcome Back” each night.  The internet Wi-Fi was easy to access and pretty fast.  I also used the Business Center to print some documents and boarding passes, and everything there was easy to use and well stocked.  Overall a very nice hotel in a great location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r238194791-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>238194791</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Clean facilities</t>
+  </si>
+  <si>
+    <t>Nice clean facility ...small breakfast area great for business travelers maybe not large groups.   Shopping within 1.5 miles ikea, park medow mall...lots of restaurants close but you definitely need transportation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r223491027-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>223491027</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>This hotel is wonderful. We stayed here for 5 nights and were very pleased. The room was clean, pool was great, hot tub was nice and breakfast was good as well. The only issue we had was that the wifi connection was not so good, it kept going off and on, but no biggie. We will definitely stay here again on our next trip to Denver. The light rail is a short walk up the street that takes you into downtown for 8 dollars round trip, much cheaper alternative than staying in a hotel downtown. The area seems very safe as well. Do not hesitate to chose this hotel !MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>This hotel is wonderful. We stayed here for 5 nights and were very pleased. The room was clean, pool was great, hot tub was nice and breakfast was good as well. The only issue we had was that the wifi connection was not so good, it kept going off and on, but no biggie. We will definitely stay here again on our next trip to Denver. The light rail is a short walk up the street that takes you into downtown for 8 dollars round trip, much cheaper alternative than staying in a hotel downtown. The area seems very safe as well. Do not hesitate to chose this hotel !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r216487586-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>216487586</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Best customer service</t>
+  </si>
+  <si>
+    <t>This hotel has some of the best employees I have ever seen. Shawna and Leo at the front desk have gone above and beyond in every way possible. They have changed an unfortunate reason to stay at a hotel into a wonderful stay.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r211167291-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>211167291</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>Good attention to detail &amp; nice staff!</t>
+  </si>
+  <si>
+    <t>I just checked in a few hours ago and already I am impressed. Dora at the front desk is a joy! Very friendly and accommodating. The room has all the standard amenities like a full length mirror (come on ladies, can I get an amen??), microwave, coffee maker, iron/full-sized ironing board, hair dryer, little ice bucket, pretty large mini fridge, FREE WIFI &amp; BREAKFAST. The room is clean and looks nice. Comfortable beds with way too many pillows and super tight "hospital corners" for people who like that "tucked in" feeling. They have a washer and dryer available for guest use (soap and dryer sheets $1 ea. box if you need it). And the part that made me laugh (but I loved it) was that they fold the end of the toilet paper like a little Japanese fan when they clean your room. The attention to detail is nice. My ONLY "complaint" so far is that a dark spider was lurking around in my bathroom. I do have a ground floor room and so I'm guessing that the upper floors probably have no "little unwanted guests". Some things you can't really do much about and I'm assuming this is one of them. I just threw that in the review so the hotel manager would see it in case there is some sort of spider prevention they can do(??) I don't see any spiderwebs--like I said, it's very clean. The workout...I just checked in a few hours ago and already I am impressed. Dora at the front desk is a joy! Very friendly and accommodating. The room has all the standard amenities like a full length mirror (come on ladies, can I get an amen??), microwave, coffee maker, iron/full-sized ironing board, hair dryer, little ice bucket, pretty large mini fridge, FREE WIFI &amp; BREAKFAST. The room is clean and looks nice. Comfortable beds with way too many pillows and super tight "hospital corners" for people who like that "tucked in" feeling. They have a washer and dryer available for guest use (soap and dryer sheets $1 ea. box if you need it). And the part that made me laugh (but I loved it) was that they fold the end of the toilet paper like a little Japanese fan when they clean your room. The attention to detail is nice. My ONLY "complaint" so far is that a dark spider was lurking around in my bathroom. I do have a ground floor room and so I'm guessing that the upper floors probably have no "little unwanted guests". Some things you can't really do much about and I'm assuming this is one of them. I just threw that in the review so the hotel manager would see it in case there is some sort of spider prevention they can do(??) I don't see any spiderwebs--like I said, it's very clean. The workout room and (indoor) pool are both pretty small. This, and "my little friend" are the 2 reasons I'm giving 4 stars instead of 5. They seem to have all the standard workout room equipment, as long as you don't have competition for the room. The phones have a weird thing where you have to press a line before getting a dial tone. I thought my phone was broken at first, so heads up about that. I noticed they have an ethernet plug in the wall if you want to be hard-wired to the internet as well. Anyway, I'd definitely stay here again, happily. So far, so good.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I just checked in a few hours ago and already I am impressed. Dora at the front desk is a joy! Very friendly and accommodating. The room has all the standard amenities like a full length mirror (come on ladies, can I get an amen??), microwave, coffee maker, iron/full-sized ironing board, hair dryer, little ice bucket, pretty large mini fridge, FREE WIFI &amp; BREAKFAST. The room is clean and looks nice. Comfortable beds with way too many pillows and super tight "hospital corners" for people who like that "tucked in" feeling. They have a washer and dryer available for guest use (soap and dryer sheets $1 ea. box if you need it). And the part that made me laugh (but I loved it) was that they fold the end of the toilet paper like a little Japanese fan when they clean your room. The attention to detail is nice. My ONLY "complaint" so far is that a dark spider was lurking around in my bathroom. I do have a ground floor room and so I'm guessing that the upper floors probably have no "little unwanted guests". Some things you can't really do much about and I'm assuming this is one of them. I just threw that in the review so the hotel manager would see it in case there is some sort of spider prevention they can do(??) I don't see any spiderwebs--like I said, it's very clean. The workout...I just checked in a few hours ago and already I am impressed. Dora at the front desk is a joy! Very friendly and accommodating. The room has all the standard amenities like a full length mirror (come on ladies, can I get an amen??), microwave, coffee maker, iron/full-sized ironing board, hair dryer, little ice bucket, pretty large mini fridge, FREE WIFI &amp; BREAKFAST. The room is clean and looks nice. Comfortable beds with way too many pillows and super tight "hospital corners" for people who like that "tucked in" feeling. They have a washer and dryer available for guest use (soap and dryer sheets $1 ea. box if you need it). And the part that made me laugh (but I loved it) was that they fold the end of the toilet paper like a little Japanese fan when they clean your room. The attention to detail is nice. My ONLY "complaint" so far is that a dark spider was lurking around in my bathroom. I do have a ground floor room and so I'm guessing that the upper floors probably have no "little unwanted guests". Some things you can't really do much about and I'm assuming this is one of them. I just threw that in the review so the hotel manager would see it in case there is some sort of spider prevention they can do(??) I don't see any spiderwebs--like I said, it's very clean. The workout room and (indoor) pool are both pretty small. This, and "my little friend" are the 2 reasons I'm giving 4 stars instead of 5. They seem to have all the standard workout room equipment, as long as you don't have competition for the room. The phones have a weird thing where you have to press a line before getting a dial tone. I thought my phone was broken at first, so heads up about that. I noticed they have an ethernet plug in the wall if you want to be hard-wired to the internet as well. Anyway, I'd definitely stay here again, happily. So far, so good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r207685210-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>207685210</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel if you do not swim</t>
+  </si>
+  <si>
+    <t>Indoor pool was not heated and the spa pumps were broken.  Great staff and great breakfast cooked on the spot.  Ample clean rooms, good wifi for the internet.  Great coffee 24 hours a day in breakfast room.  BECAUSE OF THE POOL TEMP AND BROKEN SPA IT IS NOT GOOD FOR CHILDREN.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded August 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2014</t>
+  </si>
+  <si>
+    <t>Indoor pool was not heated and the spa pumps were broken.  Great staff and great breakfast cooked on the spot.  Ample clean rooms, good wifi for the internet.  Great coffee 24 hours a day in breakfast room.  BECAUSE OF THE POOL TEMP AND BROKEN SPA IT IS NOT GOOD FOR CHILDREN.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r207560416-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>207560416</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Spend a night at this hotel for a quick getaway.  Nice indoor pool.  The hot tub is more of a hot soaking tub without very strong jets.  This hotel is right across the street from Maggiano's Little Italy restaurant.  The rooms are nice.  The beds are good and comfortable.  I booked a jacuzzi suite and it was nice.  Had a fridge and coffee maker in the room.  The free breakfast was the standard Holiday Inn Express - eggs, pancake maker, biscuits and gravy..etc.  Your room key has a coupon on it for a free Margarita at Las Brisas.  We went over there and the free margarita was overpriced.  It was terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Spend a night at this hotel for a quick getaway.  Nice indoor pool.  The hot tub is more of a hot soaking tub without very strong jets.  This hotel is right across the street from Maggiano's Little Italy restaurant.  The rooms are nice.  The beds are good and comfortable.  I booked a jacuzzi suite and it was nice.  Had a fridge and coffee maker in the room.  The free breakfast was the standard Holiday Inn Express - eggs, pancake maker, biscuits and gravy..etc.  Your room key has a coupon on it for a free Margarita at Las Brisas.  We went over there and the free margarita was overpriced.  It was terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r207440695-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>207440695</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Okay place</t>
+  </si>
+  <si>
+    <t>This hotel is below holiday inn express standards. The room looked to be clean, but actually it was not. The person at the front office during the night was quite indifferent. However, the person who was on duty in the morning was very nice, polite and helpful. The breakfast was standard holiday inn express types, like what i was expecting, nothing to complain about.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is below holiday inn express standards. The room looked to be clean, but actually it was not. The person at the front office during the night was quite indifferent. However, the person who was on duty in the morning was very nice, polite and helpful. The breakfast was standard holiday inn express types, like what i was expecting, nothing to complain about.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r203902448-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>203902448</t>
+  </si>
+  <si>
+    <t>05/03/2014</t>
+  </si>
+  <si>
+    <t>Beautiful Place</t>
+  </si>
+  <si>
+    <t>Lady at the front desk was truly wonderful, they had everything ready for sign in.   She was AWESOME.   Room is beautiful, nice and spacious, great bed, desk, micro and refig.  good TV.  Shower relaxing.   Pool area and hot tub, nice large and clean.    Other people staying here were friendly as well.   Great breakfast room.  This is a must stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r202267977-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>202267977</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>More attention needs to be paid.</t>
+  </si>
+  <si>
+    <t>As and IHG reward cardmember I am very loyal to Holiday Inn expresses and any holiday in express branded hotels. Cleanliness is of the utmost importance to myself as well as any other guest that staying at a hotel. This hotel definitely missed the mark. Upon brushing my teeth I did notice that the sink had yet to be clean from prior guests. This was toothpaste left from more than just one or two guest. Needless to say I was completely and totally grossed out. When I contacted the front desk they were so nonchalant about it. Which made me think that this is something that happens quite often. That will be the last time I will patron that hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded May 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2014</t>
+  </si>
+  <si>
+    <t>As and IHG reward cardmember I am very loyal to Holiday Inn expresses and any holiday in express branded hotels. Cleanliness is of the utmost importance to myself as well as any other guest that staying at a hotel. This hotel definitely missed the mark. Upon brushing my teeth I did notice that the sink had yet to be clean from prior guests. This was toothpaste left from more than just one or two guest. Needless to say I was completely and totally grossed out. When I contacted the front desk they were so nonchalant about it. Which made me think that this is something that happens quite often. That will be the last time I will patron that hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r198521037-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>198521037</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>Great area for Denver visit</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights with our 2 teenagers in a suite-2 queen beds and a couch/sitting area.  We visited Denver for 2 days on our way to skiing in Breckenridge.  The room was clean and nice with room for our extra luggage and ski gear.  Great location near shopping, a mall, Ikea, and restaurants.  The hotel didn't really have a view of the mountains, unfortunately.  But, a good place to stay.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r192015536-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>192015536</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Had a great family suite with pull out sofa and 2 flat screen tvs. The bathroom could use a deep clean since there was mold starting to show on the top of wallpaper. Air filter in heater unit needed attention since it spewed black stuff all over the bedding. Beds were comfortable and overall room appeared clean. Pool was warm, but too many chemicals which bleached out my daughter's swimsuit and irritated other kids skin who were also swimming with her. Breakfast (nothing special) was included along with free wifi. Across the street from the great Maggiano's Restaurant and close to Park Meadows shopping mall. Overall, it was fine for one night, but would prefer other nicer properties in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded February 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2014</t>
+  </si>
+  <si>
+    <t>Had a great family suite with pull out sofa and 2 flat screen tvs. The bathroom could use a deep clean since there was mold starting to show on the top of wallpaper. Air filter in heater unit needed attention since it spewed black stuff all over the bedding. Beds were comfortable and overall room appeared clean. Pool was warm, but too many chemicals which bleached out my daughter's swimsuit and irritated other kids skin who were also swimming with her. Breakfast (nothing special) was included along with free wifi. Across the street from the great Maggiano's Restaurant and close to Park Meadows shopping mall. Overall, it was fine for one night, but would prefer other nicer properties in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r186414291-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>186414291</t>
+  </si>
+  <si>
+    <t>12/01/2013</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoyed the stay. Room was large, clean and comfortable. Staff was very helpful and extremely friendly. Breakfast room was a little small but overall a great place to stay and reasonably priced. Would definitely stay again. </t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r181741547-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>181741547</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>Nice for the price</t>
+  </si>
+  <si>
+    <t>Spent the night here to use the hot tub and watch a few pay per view movies. We had a 2 queen bed family suite. The room is spacious, except for the very cramped bathroom. It was clean and had modern décor (if you ignore the outdated popcorn ceiling). The community hot tub is very large and enjoyable. Pool area is open 6am until midnight and we had the place to ourselves most of the time. The charge tracker for the pay per movies was broken, so we had the pleasant bonus of watching 3 free movies. Breakfast was decent - fresh baked cinnamon rolls, eggs, sausage, biscuits &amp; gravy, pancakes...yum. They allowed us to check out an hour later, which gave us some extra pool time. I'll stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Spent the night here to use the hot tub and watch a few pay per view movies. We had a 2 queen bed family suite. The room is spacious, except for the very cramped bathroom. It was clean and had modern décor (if you ignore the outdated popcorn ceiling). The community hot tub is very large and enjoyable. Pool area is open 6am until midnight and we had the place to ourselves most of the time. The charge tracker for the pay per movies was broken, so we had the pleasant bonus of watching 3 free movies. Breakfast was decent - fresh baked cinnamon rolls, eggs, sausage, biscuits &amp; gravy, pancakes...yum. They allowed us to check out an hour later, which gave us some extra pool time. I'll stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r173384359-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>173384359</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>Great customer service and decent breakfast</t>
+  </si>
+  <si>
+    <t>The room was clean, but it smelled like stale cigarette smoke even though this is a non-smoking property.  The bed was very comfortable and the breakfast was great!  One particular front desk employee was very friendly and quite helpful, but her name is escaping me (she worked on a Friday night and if a single letter was added to her name it would be a boy's name - UGGH!).  Hopefully the hotel will know whom I'm writing about?!?  Great woman and exceeded my expectations!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r168782491-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>168782491</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Basic Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel after a long drive from SLC via I-80 thru Wyoming on day two of our road trip across the country. The hotel is located in a business park, easily accessible from the  freeway, and is clearly geared towards business travelers. When we arrived, check-in was fast and the front desk person was friendly. Once we packed are items into the room, my wife noticed some used dental picks underneath one of the chairs in the room. When she went to the front desk to tell the employee about it she was only met with "Eww, that's gross!" but no offer to have someone come clean it up. Otherwise, the room and beds were nice and comfortable.It was a simple breakfast in the morning but the pancake "machine" was broken and there wasn't an alternative available.The bill was under the door when we woke up so check-out wasn't necessary.I have to rate it a three as the dental picks were clearly visible when we entered the room and should have been caught by housekeeping and the front desk should have offered to have someone come in and clean up the mess.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded August 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2013</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel after a long drive from SLC via I-80 thru Wyoming on day two of our road trip across the country. The hotel is located in a business park, easily accessible from the  freeway, and is clearly geared towards business travelers. When we arrived, check-in was fast and the front desk person was friendly. Once we packed are items into the room, my wife noticed some used dental picks underneath one of the chairs in the room. When she went to the front desk to tell the employee about it she was only met with "Eww, that's gross!" but no offer to have someone come clean it up. Otherwise, the room and beds were nice and comfortable.It was a simple breakfast in the morning but the pancake "machine" was broken and there wasn't an alternative available.The bill was under the door when we woke up so check-out wasn't necessary.I have to rate it a three as the dental picks were clearly visible when we entered the room and should have been caught by housekeeping and the front desk should have offered to have someone come in and clean up the mess.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r168254804-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>168254804</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>Tired and In Need of an Upgrade</t>
+  </si>
+  <si>
+    <t>Stayed here on business and was extremely disappointed.  Sunday shift frazzled and overwhelmed even though only one other person was at the desk besides me.  Two evenings out of three there were giant bags of trash as you got out of the elevator.  Room carpet had stains that I kept walking around.  Ceiling had a bulge where there once must have been a leak.  When I asked for help with the air conditioning the front desk person said she would be leaving to go home but would check it out for me before she left, obviously put out to have to do this before leaving and doing me a huge favor.  No problem I won't be back so no more favors needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here on business and was extremely disappointed.  Sunday shift frazzled and overwhelmed even though only one other person was at the desk besides me.  Two evenings out of three there were giant bags of trash as you got out of the elevator.  Room carpet had stains that I kept walking around.  Ceiling had a bulge where there once must have been a leak.  When I asked for help with the air conditioning the front desk person said she would be leaving to go home but would check it out for me before she left, obviously put out to have to do this before leaving and doing me a huge favor.  No problem I won't be back so no more favors needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r161280978-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>161280978</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>Decent place to stay, but don't expect too much</t>
+  </si>
+  <si>
+    <t>We choose this hotel because it was close to Fiddler's Green Amphitheatre and was a decent hotel.  A basic Holiday Inn Express, the rooms were clean and everything about it was pretty basic, nothing too special.  It was close to where we were headed and had a free shuttle within 10 miles.  However, the shuttle driver seemed as though we were imposing on him, and he had already taken a group to Fiddler's Green and was just returning when we wanted to leave.  Another negative is that we stayed 1 night, left the hotel during the day (were gone by 9 am) and were coming back for another night.  When we returned to the hotel at 4 pm our room was still not clean.  We had to track down housekeeping just to get new towels.  I little disappointed that our bed wasn't even made.  All in all just a decent place to stay.  Also, the ATM was not working and the vending machines only took cash.  Front desk couldn't even help when I asked.  That seems kind of ridiculous!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Joe C, General Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded May 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2013</t>
+  </si>
+  <si>
+    <t>We choose this hotel because it was close to Fiddler's Green Amphitheatre and was a decent hotel.  A basic Holiday Inn Express, the rooms were clean and everything about it was pretty basic, nothing too special.  It was close to where we were headed and had a free shuttle within 10 miles.  However, the shuttle driver seemed as though we were imposing on him, and he had already taken a group to Fiddler's Green and was just returning when we wanted to leave.  Another negative is that we stayed 1 night, left the hotel during the day (were gone by 9 am) and were coming back for another night.  When we returned to the hotel at 4 pm our room was still not clean.  We had to track down housekeeping just to get new towels.  I little disappointed that our bed wasn't even made.  All in all just a decent place to stay.  Also, the ATM was not working and the vending machines only took cash.  Front desk couldn't even help when I asked.  That seems kind of ridiculous!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r155459348-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>155459348</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>Quiet, clean, in good repair, and the staff were friendly.  The room was just enough space for a multi-day stay.  I was most surprised by the included breakfast; the hot options were nothing fancy but the selection was better than I expected.  My colleagues were booked in several comperable hotels in this strip and it seemed that I had the best experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Josh K, Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Quiet, clean, in good repair, and the staff were friendly.  The room was just enough space for a multi-day stay.  I was most surprised by the included breakfast; the hot options were nothing fancy but the selection was better than I expected.  My colleagues were booked in several comperable hotels in this strip and it seemed that I had the best experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r155264295-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>155264295</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>A very nice Holiday Inn Express--pretty much what you expect at Holiday Inn Express.  Excellent location and easy to find.  The pool and whirlpool worked very well and the area was clean.  Lobby was clean.  Breakfast was typical of Holiday Inn Express and well tended to and area was kept clean.  The check-in process was a little brusque--Dora said all the right words but without any friendliness or even a smile.  It was like being checked in my a machine.  This starts off the whole experience at the hotel with a little trepidation.  Our room was on the fourth floor and there was some water damage on the ceiling (probably from the roof).  The room was clean as was the bathroom.  Overall a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>A very nice Holiday Inn Express--pretty much what you expect at Holiday Inn Express.  Excellent location and easy to find.  The pool and whirlpool worked very well and the area was clean.  Lobby was clean.  Breakfast was typical of Holiday Inn Express and well tended to and area was kept clean.  The check-in process was a little brusque--Dora said all the right words but without any friendliness or even a smile.  It was like being checked in my a machine.  This starts off the whole experience at the hotel with a little trepidation.  Our room was on the fourth floor and there was some water damage on the ceiling (probably from the roof).  The room was clean as was the bathroom.  Overall a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r150452806-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>150452806</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Economic and nice</t>
+  </si>
+  <si>
+    <t>The cost can't be beat and the room was clean with comfortable beds.  A great place to sleep and fairly quiet.  Typical HIE breakfast.  Exercise equipment - treadmill was good, bikes were poor!  No weights and very basic room.  The suites have a microwave and small refrig.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded August 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2013</t>
+  </si>
+  <si>
+    <t>The cost can't be beat and the room was clean with comfortable beds.  A great place to sleep and fairly quiet.  Typical HIE breakfast.  Exercise equipment - treadmill was good, bikes were poor!  No weights and very basic room.  The suites have a microwave and small refrig.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r150033529-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>150033529</t>
+  </si>
+  <si>
+    <t>01/19/2013</t>
+  </si>
+  <si>
+    <t>Business in Englewood</t>
+  </si>
+  <si>
+    <t>This hotel is nothing extremely special, but for the business that I needed to do, it's just the right formula. Breakfast okay-ish, but the room is spacious, the bed/mattress extremely good. Makes you rest comfortably to be fit during the day and the meetings you need to preside. Room has a large desk to work at, internet was free of charge, large wide screen TV. I am satisfied, it was good! Personnel is certainly customer oriented.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is nothing extremely special, but for the business that I needed to do, it's just the right formula. Breakfast okay-ish, but the room is spacious, the bed/mattress extremely good. Makes you rest comfortably to be fit during the day and the meetings you need to preside. Room has a large desk to work at, internet was free of charge, large wide screen TV. I am satisfied, it was good! Personnel is certainly customer oriented.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r147485749-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>147485749</t>
+  </si>
+  <si>
+    <t>12/15/2012</t>
+  </si>
+  <si>
+    <t>Clean, quiet, and economical,</t>
+  </si>
+  <si>
+    <t>We had to travel to Denver for a car recall and chose this property because it was relatively close and to our surprise it was a wonderful sleep. Our standard room was not only quiet but it was absolutely sterile. The breakfast was your normal "free" breakfast except it was hot and had multiple dishes.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r141435932-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>141435932</t>
+  </si>
+  <si>
+    <t>09/27/2012</t>
+  </si>
+  <si>
+    <t>Very Outdated</t>
+  </si>
+  <si>
+    <t>This IHG property is outdated and am amazed that they associate with a property in this condition. Beds had not been flipped in years, bathroom tub drain was sticking out three inches or more and was a hazard, carpets were filthy my son had soiled socks within half an hour of walking around and staff seem to think they run a Hyatt and will not accept that anything is wrong with the rooms. The thing that got me really worked up was having to ask for or more like BEG for a micro fridge in the room (which is standard in most hotels) and being told that they will see if they have one available. I needed it for my little ones milk the maintenance man starts pounding on my door at 730am. REALLY !!!! Especially after they knew i arrived at 11pm.  We checked out and went some where else......MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded October 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2012</t>
+  </si>
+  <si>
+    <t>This IHG property is outdated and am amazed that they associate with a property in this condition. Beds had not been flipped in years, bathroom tub drain was sticking out three inches or more and was a hazard, carpets were filthy my son had soiled socks within half an hour of walking around and staff seem to think they run a Hyatt and will not accept that anything is wrong with the rooms. The thing that got me really worked up was having to ask for or more like BEG for a micro fridge in the room (which is standard in most hotels) and being told that they will see if they have one available. I needed it for my little ones milk the maintenance man starts pounding on my door at 730am. REALLY !!!! Especially after they knew i arrived at 11pm.  We checked out and went some where else......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r140943242-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>140943242</t>
+  </si>
+  <si>
+    <t>09/22/2012</t>
+  </si>
+  <si>
+    <t>Appreciated the helpful staff</t>
+  </si>
+  <si>
+    <t>The front desk staff was very helpful when we needed some documents faxed. He followed up when the fax wouldn't go through. Breakfast was good as well .... Always nice to get a cup of fresh coffee to start the day. Rooms were good too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r140077272-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>140077272</t>
+  </si>
+  <si>
+    <t>09/12/2012</t>
+  </si>
+  <si>
+    <t>Beware!  Theft a problem at this hotel!!</t>
+  </si>
+  <si>
+    <t>Beware!!  Do not leave your valuables in your room.  Had my iPad stolen from the dresser drawer! when I spoke with the 'supervisor' he said i had no proof (other than the fact that it was there when I left!!). I asked him to speak with the housekeeping staff, and he told me they didn't see an iPad in the drawer.  His final response was "What do you want me to do?"  I asked for his supervisor's number, and he stated he didn't have one.  He finally gave me the "owners" number, which turned out to be the wrong number...imagine that!!Steer clear of this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded September 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2012</t>
+  </si>
+  <si>
+    <t>Beware!!  Do not leave your valuables in your room.  Had my iPad stolen from the dresser drawer! when I spoke with the 'supervisor' he said i had no proof (other than the fact that it was there when I left!!). I asked him to speak with the housekeeping staff, and he told me they didn't see an iPad in the drawer.  His final response was "What do you want me to do?"  I asked for his supervisor's number, and he stated he didn't have one.  He finally gave me the "owners" number, which turned out to be the wrong number...imagine that!!Steer clear of this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r138567877-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>138567877</t>
+  </si>
+  <si>
+    <t>08/27/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>My family and I stayed in the hotel about 3 weeks ago on a vacation to Colorado. We were very pleased with our accommodations and the location of this hotel. We have 2 small children so cleanliness is very important to us. The service from the front desk as well as the cleaning people was wonderful. The room was very quiet even though it was fully book every night we were there. We enjoyed the daily breakfast buffet b/c it saved us a meal out. We have stayed in other Holiday Inn Expresses throughout the US and this one ranks very close to the top. We would definitely stay there again and recommend it to friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>My family and I stayed in the hotel about 3 weeks ago on a vacation to Colorado. We were very pleased with our accommodations and the location of this hotel. We have 2 small children so cleanliness is very important to us. The service from the front desk as well as the cleaning people was wonderful. The room was very quiet even though it was fully book every night we were there. We enjoyed the daily breakfast buffet b/c it saved us a meal out. We have stayed in other Holiday Inn Expresses throughout the US and this one ranks very close to the top. We would definitely stay there again and recommend it to friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r136776994-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>136776994</t>
+  </si>
+  <si>
+    <t>08/09/2012</t>
+  </si>
+  <si>
+    <t>Overall Poor</t>
+  </si>
+  <si>
+    <t>Customer service was decent.  However, there were drainage problems where water would back up in the shower almost to ankles...disgusting!  Also the internet connectivity was intermittent.  The main entry door to the property was in disrepair in serious need of an upgrade.  I would not stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r136433248-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>136433248</t>
+  </si>
+  <si>
+    <t>08/06/2012</t>
+  </si>
+  <si>
+    <t>One of the better Holiday Inn Expresses around</t>
+  </si>
+  <si>
+    <t>First time I've ever been to Denver, so I chose this hotel in the southern suburbs. Located right off of I-25 and Dry Creek Road, it is convenient to everything you need.
+The hotel lobby is very well decorated- especially for a Holiday Inn Express. Business center is near there too, but with only one computer. Only had to wait once though, since internet is available in the room.
+As a Priority Club member, I received two bottles of water, which comes in handy when coming from much lower altitudes!
+I stayed in a suite, which was decent size. Nice mini-kitchen and sofa and chair along with the basic hotel furnishings. Only problem was the TV was had to see from the couch, but from your bed it is great. I also had a view of the mountains if I turned my head to the left.
+Bathroom is pretty basic- however the exhaust fan did not work as well as it should. I had to crack the door open to remove the steam. Luckily I was traveling alone.
+Pool is fairly small, but that is typical of HI Expresses. Water is fairly warm though. Spa is OK, whirlpool function worked great.
+I heard a few noises, probably walking, but nothing major. Got a good nights sleep all five nights.
+Breakfast is OK- nothing too special. Cinnamon rolls are always good. No pancake machine- but I've only seen one HI Express...First time I've ever been to Denver, so I chose this hotel in the southern suburbs. Located right off of I-25 and Dry Creek Road, it is convenient to everything you need.The hotel lobby is very well decorated- especially for a Holiday Inn Express. Business center is near there too, but with only one computer. Only had to wait once though, since internet is available in the room.As a Priority Club member, I received two bottles of water, which comes in handy when coming from much lower altitudes!I stayed in a suite, which was decent size. Nice mini-kitchen and sofa and chair along with the basic hotel furnishings. Only problem was the TV was had to see from the couch, but from your bed it is great. I also had a view of the mountains if I turned my head to the left.Bathroom is pretty basic- however the exhaust fan did not work as well as it should. I had to crack the door open to remove the steam. Luckily I was traveling alone.Pool is fairly small, but that is typical of HI Expresses. Water is fairly warm though. Spa is OK, whirlpool function worked great.I heard a few noises, probably walking, but nothing major. Got a good nights sleep all five nights.Breakfast is OK- nothing too special. Cinnamon rolls are always good. No pancake machine- but I've only seen one HI Express that had one.Staff is very friendly. Best out of all of them is Bernadette who works the overnights. We talked many times over the nights and early mornings I was there, and she was very helpful in finding some attractions in Denver and Colorado Springs for me. If you go out for the night or wake up very early, make sure to stop by the desk and chat with her.Overall, if I ever come back to the area, I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>First time I've ever been to Denver, so I chose this hotel in the southern suburbs. Located right off of I-25 and Dry Creek Road, it is convenient to everything you need.
+The hotel lobby is very well decorated- especially for a Holiday Inn Express. Business center is near there too, but with only one computer. Only had to wait once though, since internet is available in the room.
+As a Priority Club member, I received two bottles of water, which comes in handy when coming from much lower altitudes!
+I stayed in a suite, which was decent size. Nice mini-kitchen and sofa and chair along with the basic hotel furnishings. Only problem was the TV was had to see from the couch, but from your bed it is great. I also had a view of the mountains if I turned my head to the left.
+Bathroom is pretty basic- however the exhaust fan did not work as well as it should. I had to crack the door open to remove the steam. Luckily I was traveling alone.
+Pool is fairly small, but that is typical of HI Expresses. Water is fairly warm though. Spa is OK, whirlpool function worked great.
+I heard a few noises, probably walking, but nothing major. Got a good nights sleep all five nights.
+Breakfast is OK- nothing too special. Cinnamon rolls are always good. No pancake machine- but I've only seen one HI Express...First time I've ever been to Denver, so I chose this hotel in the southern suburbs. Located right off of I-25 and Dry Creek Road, it is convenient to everything you need.The hotel lobby is very well decorated- especially for a Holiday Inn Express. Business center is near there too, but with only one computer. Only had to wait once though, since internet is available in the room.As a Priority Club member, I received two bottles of water, which comes in handy when coming from much lower altitudes!I stayed in a suite, which was decent size. Nice mini-kitchen and sofa and chair along with the basic hotel furnishings. Only problem was the TV was had to see from the couch, but from your bed it is great. I also had a view of the mountains if I turned my head to the left.Bathroom is pretty basic- however the exhaust fan did not work as well as it should. I had to crack the door open to remove the steam. Luckily I was traveling alone.Pool is fairly small, but that is typical of HI Expresses. Water is fairly warm though. Spa is OK, whirlpool function worked great.I heard a few noises, probably walking, but nothing major. Got a good nights sleep all five nights.Breakfast is OK- nothing too special. Cinnamon rolls are always good. No pancake machine- but I've only seen one HI Express that had one.Staff is very friendly. Best out of all of them is Bernadette who works the overnights. We talked many times over the nights and early mornings I was there, and she was very helpful in finding some attractions in Denver and Colorado Springs for me. If you go out for the night or wake up very early, make sure to stop by the desk and chat with her.Overall, if I ever come back to the area, I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r131222825-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>131222825</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Excellent and Friendly</t>
+  </si>
+  <si>
+    <t>easy drive from Denver airport and we arrived at the holiday inn, very warm welcome on check in and priority club status recognised and an upgraded room.Suite was big and clean, sofa, chair and tv in one room, small microwave and fridge, kingsize bedroom.  All very clean and efficient.Free breakfast served from 6 which is a bonus.Pool was nice and hot tub lovely, many different restaurants within driving distance (short).Very impressed.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r129061785-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>129061785</t>
+  </si>
+  <si>
+    <t>04/29/2012</t>
+  </si>
+  <si>
+    <t>Excellent for Business &amp; Leisure</t>
+  </si>
+  <si>
+    <t>We were very warmly welcomed by Josh at the front desk.  We had just come from a 4 hour flight from Florida and had, had a stressful car rental experience at the Denver Airport.  Josh greeted us with some delicious cookies and offered us some coffee.  It was like home away from home.  We were there for business and leisure, this hotel was great for both.  It is one of the best  Holiday Inn Express hotels that I have ever stayed at!  The room was clean, quiet, and felt very safe.  On our 3 day stay, there was always a friendly greeting when we went by the front desk.  The breakfast was very good.  Along with the signature cinnamon buns, they had a pancake machine (hot &amp; fresh)!  There was plenty of parking, free wi-fi in your room (very good), and a business center if you didn't pack your laptop.  We would definitely stay here again when in the Denver area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>We were very warmly welcomed by Josh at the front desk.  We had just come from a 4 hour flight from Florida and had, had a stressful car rental experience at the Denver Airport.  Josh greeted us with some delicious cookies and offered us some coffee.  It was like home away from home.  We were there for business and leisure, this hotel was great for both.  It is one of the best  Holiday Inn Express hotels that I have ever stayed at!  The room was clean, quiet, and felt very safe.  On our 3 day stay, there was always a friendly greeting when we went by the front desk.  The breakfast was very good.  Along with the signature cinnamon buns, they had a pancake machine (hot &amp; fresh)!  There was plenty of parking, free wi-fi in your room (very good), and a business center if you didn't pack your laptop.  We would definitely stay here again when in the Denver area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r127030037-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>127030037</t>
+  </si>
+  <si>
+    <t>03/31/2012</t>
+  </si>
+  <si>
+    <t>Umm no. Will not come back here</t>
+  </si>
+  <si>
+    <t>When I arrived, the toilet roll dispenser was in the sink. No biggie. But when I went to use the toilet, I noticed it was so slow to flush (I hadn't done anything yet to cause this!). Still I was tired and went to sleep. The next morning, as I used the shower, I noticed a half used bottle of shampoo on the shower shelf. Not mine - I'm bald.I went to my meetings, came back, and the room was not made up (I did not hang up a DND sign). I went to discuss with a manager later but got the owner - and he didn't understand me as his English wasn't good. But he understood enough that he said he would get someone to fix the toilet. I go out on my dinner meeting, come back, toilet doesn't work just as I'm going to bed. The next morning, I pack, check out early and went to Embassy Suites to finish my trip. Worst hotel stay in a long time, given I've spent 60% of my time since January in one hotel or another.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded May 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2012</t>
+  </si>
+  <si>
+    <t>When I arrived, the toilet roll dispenser was in the sink. No biggie. But when I went to use the toilet, I noticed it was so slow to flush (I hadn't done anything yet to cause this!). Still I was tired and went to sleep. The next morning, as I used the shower, I noticed a half used bottle of shampoo on the shower shelf. Not mine - I'm bald.I went to my meetings, came back, and the room was not made up (I did not hang up a DND sign). I went to discuss with a manager later but got the owner - and he didn't understand me as his English wasn't good. But he understood enough that he said he would get someone to fix the toilet. I go out on my dinner meeting, come back, toilet doesn't work just as I'm going to bed. The next morning, I pack, check out early and went to Embassy Suites to finish my trip. Worst hotel stay in a long time, given I've spent 60% of my time since January in one hotel or another.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r126332314-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>126332314</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>I have stayed at many Holiday Inn Express hotels.  This had an updated room, and the hotel was clean and conveniently located.  The staff was friendly and helpful. Negatives were:  I received a wake up call both mornings which I had not requested.  One of the drawers on the dresser floated out.  It looks like they were aware of the problem, because someone stuck a folded piece of paper under one of the legs, but it didn't solve the problem.The breakfast was the standard fare, nothing outstanding but enough to start your day.  The price was excellent, particularly based on location and the fact that room was updated.  I would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, ihgcare at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded April 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at many Holiday Inn Express hotels.  This had an updated room, and the hotel was clean and conveniently located.  The staff was friendly and helpful. Negatives were:  I received a wake up call both mornings which I had not requested.  One of the drawers on the dresser floated out.  It looks like they were aware of the problem, because someone stuck a folded piece of paper under one of the legs, but it didn't solve the problem.The breakfast was the standard fare, nothing outstanding but enough to start your day.  The price was excellent, particularly based on location and the fact that room was updated.  I would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r126310007-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>126310007</t>
+  </si>
+  <si>
+    <t>03/18/2012</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>We picked this hotel to compare to the Comfort Suites next door. We will go back to the Comfort Inn Suites. We checked in and the clerk failed to tell us that the hotel uses their indoor pool for some local swimming lessons on a Friday night &amp; Saturday morning! I could see doing it during the week days but on the weekend?! We swam for about 15 minutes only to realize that we were in the middle of swim lessons. The place was full. Then Saturday morning it got worse. Double the people! I asked on Friday evening when the lessons would be finished &amp; he said 7pm. They began at 9am on Saturday. They could of least told us their schedule at check in. THEN we got a wake up call at 5am on Saturday morning. The only problem, we didn't ask for a wake up call! That was the last morning my wife, the teacher, had to sleep in on her spring break! Finally, the exercise room was pitiful. The equipment was outdated. One treadmill stopped working on my wife &amp; another was shaky. Won't recommend this hotel or stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded April 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2012</t>
+  </si>
+  <si>
+    <t>We picked this hotel to compare to the Comfort Suites next door. We will go back to the Comfort Inn Suites. We checked in and the clerk failed to tell us that the hotel uses their indoor pool for some local swimming lessons on a Friday night &amp; Saturday morning! I could see doing it during the week days but on the weekend?! We swam for about 15 minutes only to realize that we were in the middle of swim lessons. The place was full. Then Saturday morning it got worse. Double the people! I asked on Friday evening when the lessons would be finished &amp; he said 7pm. They began at 9am on Saturday. They could of least told us their schedule at check in. THEN we got a wake up call at 5am on Saturday morning. The only problem, we didn't ask for a wake up call! That was the last morning my wife, the teacher, had to sleep in on her spring break! Finally, the exercise room was pitiful. The equipment was outdated. One treadmill stopped working on my wife &amp; another was shaky. Won't recommend this hotel or stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r125969721-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>125969721</t>
+  </si>
+  <si>
+    <t>03/11/2012</t>
+  </si>
+  <si>
+    <t>A great hotel, with a few minor changes would be excellent!</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel with a very friendly staff! I would definately stay here again. My only dasiownfall with this hotel is it takes the shower awhile to warm up, and occasionally will get a cold burst then back to the original temp. The only other thing I would change is put a minifridge in the rooms. Most people travelling to Denver drink tons of bottled water (especially when coming from lower altitudes!) It would be nice not to have to fill a cooler with ice twice a day just to have cold bottled water! Other than those things, its.a great hotel, and look forward to my next visit. Also, join priority club before you go. Its free and they reward you for staying with them!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel with a very friendly staff! I would definately stay here again. My only dasiownfall with this hotel is it takes the shower awhile to warm up, and occasionally will get a cold burst then back to the original temp. The only other thing I would change is put a minifridge in the rooms. Most people travelling to Denver drink tons of bottled water (especially when coming from lower altitudes!) It would be nice not to have to fill a cooler with ice twice a day just to have cold bottled water! Other than those things, its.a great hotel, and look forward to my next visit. Also, join priority club before you go. Its free and they reward you for staying with them!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r121836103-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>121836103</t>
+  </si>
+  <si>
+    <t>12/17/2011</t>
+  </si>
+  <si>
+    <t>Nice checkin bad checkout</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel in late november. Front desk clerk Bernedette was very helpful nice and outgoing.  My toilet over flowed the first night and she offered to plunge it for me and responded quick! The hotel smells like mildew very bad when you walk in so it must happen frequently.  I didn't receive a express checkout receipt under the door so I asked the front desk christy if she could get me one. She replyed sarcastic YOU DIDNT GET ONE THOSE STUPID NIGHT AUDITORS NEVER DO IT THERE JOB AND I ALWAYS HAVE TOO.  So I get my bill and there were movie charges that I never ordered.  When I asked christy she ignored me because she was on a personal call with her boyfriend.  The manager came to the front desk to do something and then again was ignored.  I said can someone help me and she said I didnt know u needed help. So she looked at the bill and said there is nothing I can do about this.  She didnt even know how to look at my profile christy had to show her.  Does anybody like there job there ?  Besides the lady who checked me in?MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel in late november. Front desk clerk Bernedette was very helpful nice and outgoing.  My toilet over flowed the first night and she offered to plunge it for me and responded quick! The hotel smells like mildew very bad when you walk in so it must happen frequently.  I didn't receive a express checkout receipt under the door so I asked the front desk christy if she could get me one. She replyed sarcastic YOU DIDNT GET ONE THOSE STUPID NIGHT AUDITORS NEVER DO IT THERE JOB AND I ALWAYS HAVE TOO.  So I get my bill and there were movie charges that I never ordered.  When I asked christy she ignored me because she was on a personal call with her boyfriend.  The manager came to the front desk to do something and then again was ignored.  I said can someone help me and she said I didnt know u needed help. So she looked at the bill and said there is nothing I can do about this.  She didnt even know how to look at my profile christy had to show her.  Does anybody like there job there ?  Besides the lady who checked me in?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r120803176-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>120803176</t>
+  </si>
+  <si>
+    <t>11/19/2011</t>
+  </si>
+  <si>
+    <t>great customer service</t>
+  </si>
+  <si>
+    <t>We initially used a free night here because we arrived real late but were staying for several days. We had planned on staying at an IGH location with extended stay abilities...that is until that place turned out to be a fraud and we returned here. Rick was awesome at getting us set back up and taken care of. He went way above the call of duty to take care of us. The facility is clean, well kept and the pool is awesome. The breakfast staff had no issues either. We highly recommend this place for one night or several. They staff even sets out coffee and cookies for the evening. Its always the small things that make the difference. They live up to and exceed the groups expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christy B, Front Office Manager at Holiday Inn Express Hotel &amp; Suites: Denver Tech Center, responded to this reviewResponded November 22, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2011</t>
+  </si>
+  <si>
+    <t>We initially used a free night here because we arrived real late but were staying for several days. We had planned on staying at an IGH location with extended stay abilities...that is until that place turned out to be a fraud and we returned here. Rick was awesome at getting us set back up and taken care of. He went way above the call of duty to take care of us. The facility is clean, well kept and the pool is awesome. The breakfast staff had no issues either. We highly recommend this place for one night or several. They staff even sets out coffee and cookies for the evening. Its always the small things that make the difference. They live up to and exceed the groups expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r120660785-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>120660785</t>
+  </si>
+  <si>
+    <t>11/16/2011</t>
+  </si>
+  <si>
+    <t>nice hotel, location and staff</t>
+  </si>
+  <si>
+    <t>The rooms are large, breakfast was very good with a lot of hot and cold choices.  You'll have to go to starbucks for coffee.  It was way weak.  Staff was very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are large, breakfast was very good with a lot of hot and cold choices.  You'll have to go to starbucks for coffee.  It was way weak.  Staff was very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r119254600-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>119254600</t>
+  </si>
+  <si>
+    <t>10/13/2011</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>My recent stay at this hotel was a wonderful experience . Breakfast was always hot on each morning and the room was always clean. On a walking distance you will find different restaurants like italian, chinese,fish etc.. The hotel could give you some discount freebees from those restaurants. The front desk Bernadette was a sister for me during all that two week stay and I hope to go back soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>My recent stay at this hotel was a wonderful experience . Breakfast was always hot on each morning and the room was always clean. On a walking distance you will find different restaurants like italian, chinese,fish etc.. The hotel could give you some discount freebees from those restaurants. The front desk Bernadette was a sister for me during all that two week stay and I hope to go back soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r118543059-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>118543059</t>
+  </si>
+  <si>
+    <t>09/24/2011</t>
+  </si>
+  <si>
+    <t>Great room, great part of town</t>
+  </si>
+  <si>
+    <t>We loved our suite at the Holiday Inn Denver Tech Center.   The bed was extremely comfortable and the room was a nice size with a seperate seating area.  The complentary breakfast is very nice and we were surprised by the innovating automatic pancake machine.  The only negetive I have to report was the front desk clerk that was on duty our first night there.   We checked in at 4:30 ish so we were ready for dinner.   My husband went down to ask the desk clerk about the local restaurants.  First he recommended the high dollar Italian restaurant across the street. When my huspand said we were not looking for Italian, he bluntly told my husband to go out the front door and down the street because there were lots of restaurants to choose from.  In my opinion, that was uncalled for blantant rudeness!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>We loved our suite at the Holiday Inn Denver Tech Center.   The bed was extremely comfortable and the room was a nice size with a seperate seating area.  The complentary breakfast is very nice and we were surprised by the innovating automatic pancake machine.  The only negetive I have to report was the front desk clerk that was on duty our first night there.   We checked in at 4:30 ish so we were ready for dinner.   My husband went down to ask the desk clerk about the local restaurants.  First he recommended the high dollar Italian restaurant across the street. When my huspand said we were not looking for Italian, he bluntly told my husband to go out the front door and down the street because there were lots of restaurants to choose from.  In my opinion, that was uncalled for blantant rudeness!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r117552613-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>117552613</t>
+  </si>
+  <si>
+    <t>09/01/2011</t>
+  </si>
+  <si>
+    <t>Always Treated Right</t>
+  </si>
+  <si>
+    <t>This hotel in Englwood CO has been my place to stay for the last year when I visit my client site.  As a frequent traveler I have stayed in a ton of places over the years – some every week for months.  This place I rate very high on just the fact they always get it right. Never an issue with getting a reservation or when I get to the hotel having my reservation.  Even when I don’t come in for a month they still treat me like I am a frequent guest.  The site is always clean and in the rooms I have never had an issue that caused me to have to complain or request a move.  This all may not sound like much but believe me other places you feel like the faster the trip is over the better.  Here it is as close to home as a hotel can get.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>This hotel in Englwood CO has been my place to stay for the last year when I visit my client site.  As a frequent traveler I have stayed in a ton of places over the years – some every week for months.  This place I rate very high on just the fact they always get it right. Never an issue with getting a reservation or when I get to the hotel having my reservation.  Even when I don’t come in for a month they still treat me like I am a frequent guest.  The site is always clean and in the rooms I have never had an issue that caused me to have to complain or request a move.  This all may not sound like much but believe me other places you feel like the faster the trip is over the better.  Here it is as close to home as a hotel can get.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r106025618-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>106025618</t>
+  </si>
+  <si>
+    <t>04/28/2011</t>
+  </si>
+  <si>
+    <t>Wow! Great Hotel for Great price!!!</t>
+  </si>
+  <si>
+    <t>My family came in from out of town and I had made reservations at the Holiday Inn Express in Denver Tech Center.  The room was clean and spacious.  The front desk staff was very courteous and friendly and top it off, my family mentioned that the hot breakfast was wonderful. I would definitely make my next reservation for my family or friends at the Holiday Inn Express.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r90317558-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>90317558</t>
+  </si>
+  <si>
+    <t>12/20/2010</t>
+  </si>
+  <si>
+    <t>Didn't like the smell.</t>
+  </si>
+  <si>
+    <t>The staff was great.  There was plenty of parking.  Everything in the room was fine except for the smell. I asked to be moved, and was, without any problems.  The new room smelled ok at first, but after a day, it smelled musty, kinda like how it smells when old carpet is removed.  I know what you're thinking, yes, I packed clean clothes.  I won't be staying here again as there are way too many hotels in this area to choose from.I gave "value" 1 bullet because price was way high for a smelly room.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r89758823-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>89758823</t>
+  </si>
+  <si>
+    <t>12/13/2010</t>
+  </si>
+  <si>
+    <t>Great rate for a great room!</t>
+  </si>
+  <si>
+    <t>Exceptional value...slept well...stayed well...thanks!</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r69001186-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>69001186</t>
+  </si>
+  <si>
+    <t>06/28/2010</t>
+  </si>
+  <si>
+    <t>not happy</t>
+  </si>
+  <si>
+    <t>We got in our room used the restroom and water started run over, the whole floor was covered in water. They came up and plunged it and left all the wet towels on the floor so we had no clean towels. Had to go get them from the front desk. The hot tube was cold so we couldnt use it. The second day the smoke alarms went off and we started to smell smoke coming from the air cond. My son had the same thing happen in his room with the smoke alarms. There were so many people in the breakfast area there was not enough food and nowhere to sit.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>We got in our room used the restroom and water started run over, the whole floor was covered in water. They came up and plunged it and left all the wet towels on the floor so we had no clean towels. Had to go get them from the front desk. The hot tube was cold so we couldnt use it. The second day the smoke alarms went off and we started to smell smoke coming from the air cond. My son had the same thing happen in his room with the smoke alarms. There were so many people in the breakfast area there was not enough food and nowhere to sit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r59185476-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>59185476</t>
+  </si>
+  <si>
+    <t>03/21/2010</t>
+  </si>
+  <si>
+    <t>Nice! Snag it if you can.</t>
+  </si>
+  <si>
+    <t>Its a great Holiday Inn Express. Customer service was great! Hot tub was hot and INDOORS. Pool is warm and inside as well. Plenty of pillows for the beds, about 30 channels for tv, pretty good free hot breakfast, biscuits and sausage gravy, bacon, scrambled eggs, bagels, cereal, milk, juices, yogurts, toast, bananas, oranges, etc. Only thing that sucked was the location, its about 25 miles south of Thornton CO. Free internet.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r34263979-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>34263979</t>
+  </si>
+  <si>
+    <t>07/08/2009</t>
+  </si>
+  <si>
+    <t>Nice place to land</t>
+  </si>
+  <si>
+    <t>This hotel is a bit of a long haul from downtown Denver, but is very convenient off of I-25, and there are free cookies in the lobby. My family stayed here for two nights while visiting different places around Denver; we had a very spacious double room with free wi-fi access. There was a coffee maker in the room, but no refrigerator. The free breakfast has many choices of hot and cold food, and the dining area is spacious enough to hold a good number of families and business travelers all at once. The indoor pool and hot tub are large and open until midnight; the pool itself is a little cold but the hot tub has great bubble action for tired muscles recovering from a long flight. During our stay, the pool room door was not functioning correctly, so we had to keep asking desk staff to let us in. The front desk is not far from the pool, but some staff members were more inclined to help that others. Overall, our stay was nice and relaxing.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>This hotel is a bit of a long haul from downtown Denver, but is very convenient off of I-25, and there are free cookies in the lobby. My family stayed here for two nights while visiting different places around Denver; we had a very spacious double room with free wi-fi access. There was a coffee maker in the room, but no refrigerator. The free breakfast has many choices of hot and cold food, and the dining area is spacious enough to hold a good number of families and business travelers all at once. The indoor pool and hot tub are large and open until midnight; the pool itself is a little cold but the hot tub has great bubble action for tired muscles recovering from a long flight. During our stay, the pool room door was not functioning correctly, so we had to keep asking desk staff to let us in. The front desk is not far from the pool, but some staff members were more inclined to help that others. Overall, our stay was nice and relaxing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r18636694-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>18636694</t>
+  </si>
+  <si>
+    <t>08/05/2008</t>
+  </si>
+  <si>
+    <t>Broken sleep. Don't stay here!</t>
+  </si>
+  <si>
+    <t>Generally I do not have an issue with hotels from Intercontinental Hotel Group. They are clean, have free wireless access and staff is very friendly and responsive. The same I can tell about this hotel too.However in no other places I’ve being woken up during the night TWICE by screaming bzzzzzzzzzz coming from the corridor. Once it was around 3:15AM in the morning and secondly – about an hour min ago. I'm writing this message 6:15AM local time because since second alarm I can't sleep any more.That [---] alarm was going off for at least 15 seconds and I’m positively sure that I’m not the only person being awoken by this unwanted alarm clock. Everyone person in my floor should be hearing it.But I partially should blame myself for my problems. If I’ve being smart enough and red reviews about this particular hotel on Tripadvisor, I’d think three times before staying here. When the hotel appears on 21st place in the ‘recommended’ list of all 30 hotels Englewood it is called ‘a clue’.Never again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>Generally I do not have an issue with hotels from Intercontinental Hotel Group. They are clean, have free wireless access and staff is very friendly and responsive. The same I can tell about this hotel too.However in no other places I’ve being woken up during the night TWICE by screaming bzzzzzzzzzz coming from the corridor. Once it was around 3:15AM in the morning and secondly – about an hour min ago. I'm writing this message 6:15AM local time because since second alarm I can't sleep any more.That [---] alarm was going off for at least 15 seconds and I’m positively sure that I’m not the only person being awoken by this unwanted alarm clock. Everyone person in my floor should be hearing it.But I partially should blame myself for my problems. If I’ve being smart enough and red reviews about this particular hotel on Tripadvisor, I’d think three times before staying here. When the hotel appears on 21st place in the ‘recommended’ list of all 30 hotels Englewood it is called ‘a clue’.Never again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r17213224-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>17213224</t>
+  </si>
+  <si>
+    <t>06/25/2008</t>
+  </si>
+  <si>
+    <t>Charged For Canceled Room</t>
+  </si>
+  <si>
+    <t>I booked travel a month in advance through the Holiday Inn website. My travel plans changed and I tried to move the reservation to Columbus.  The hotel refused to refund my charges for the room. Terrible customer service.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r15373576-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>15373576</t>
+  </si>
+  <si>
+    <t>04/26/2008</t>
+  </si>
+  <si>
+    <t>much better experience</t>
+  </si>
+  <si>
+    <t>Much better experience than recent reviewers. Older, so rooms not quite as well appointed as newer Holiday Inn Expresses, but rooms clean, beds comfortable, staff courteous, breakfast excellent., Will stay here again.</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33412-d225299-r5374614-Holiday_Inn_Express_Hotel_Suites_Denver_Tech_Center-Englewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>5374614</t>
+  </si>
+  <si>
+    <t>06/21/2006</t>
+  </si>
+  <si>
+    <t>Wonderful Place to Stay!!</t>
+  </si>
+  <si>
+    <t>This motel is beautiful!  We got a suite that had two rooms along with a spacious bathroom, refrigerator, and microwave.  Bed was extremely comfortable with soft and firm pillows.  The staff was very friendly and helpful.  Facilities were very clean especially the pool area.  Great filling breakfast is provided.  Motel is located close to major restaurants and is directly across the street from a Maggiano's Little Italy.  We got the family style dinner and had enough food left over to feed us for two more meals!  The refrigerator and microwave came in extra handy!  The location is located in a business park right off of the I25 &amp; Dry Creek Road Exit.  Will definitely stay here again when visiting in Denver!MoreShow less</t>
+  </si>
+  <si>
+    <t>This motel is beautiful!  We got a suite that had two rooms along with a spacious bathroom, refrigerator, and microwave.  Bed was extremely comfortable with soft and firm pillows.  The staff was very friendly and helpful.  Facilities were very clean especially the pool area.  Great filling breakfast is provided.  Motel is located close to major restaurants and is directly across the street from a Maggiano's Little Italy.  We got the family style dinner and had enough food left over to feed us for two more meals!  The refrigerator and microwave came in extra handy!  The location is located in a business park right off of the I25 &amp; Dry Creek Road Exit.  Will definitely stay here again when visiting in Denver!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2430,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2462,5572 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>171</v>
+      </c>
+      <c r="X17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>180</v>
+      </c>
+      <c r="X18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>188</v>
+      </c>
+      <c r="X19" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>205</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>206</v>
+      </c>
+      <c r="X21" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>214</v>
+      </c>
+      <c r="O22" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>215</v>
+      </c>
+      <c r="X22" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>223</v>
+      </c>
+      <c r="X23" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>231</v>
+      </c>
+      <c r="O24" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K25" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s">
+        <v>236</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>237</v>
+      </c>
+      <c r="X25" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J26" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>245</v>
+      </c>
+      <c r="O26" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" t="s">
+        <v>249</v>
+      </c>
+      <c r="L27" t="s">
+        <v>250</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>252</v>
+      </c>
+      <c r="X27" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" t="s">
+        <v>259</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>260</v>
+      </c>
+      <c r="X28" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" t="s">
+        <v>266</v>
+      </c>
+      <c r="L29" t="s">
+        <v>267</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s">
+        <v>272</v>
+      </c>
+      <c r="L30" t="s">
+        <v>273</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>251</v>
+      </c>
+      <c r="O30" t="s">
+        <v>274</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>275</v>
+      </c>
+      <c r="X30" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J32" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" t="s">
+        <v>287</v>
+      </c>
+      <c r="L32" t="s">
+        <v>288</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>289</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>291</v>
+      </c>
+      <c r="J33" t="s">
+        <v>292</v>
+      </c>
+      <c r="K33" t="s">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s">
+        <v>294</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>289</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>295</v>
+      </c>
+      <c r="X33" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" t="s">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s">
+        <v>302</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>303</v>
+      </c>
+      <c r="O34" t="s">
+        <v>86</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>304</v>
+      </c>
+      <c r="X34" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" t="s">
+        <v>310</v>
+      </c>
+      <c r="L35" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>312</v>
+      </c>
+      <c r="O35" t="s">
+        <v>147</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>313</v>
+      </c>
+      <c r="X35" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" t="s">
+        <v>319</v>
+      </c>
+      <c r="L36" t="s">
+        <v>320</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>312</v>
+      </c>
+      <c r="O36" t="s">
+        <v>119</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>323</v>
+      </c>
+      <c r="J37" t="s">
+        <v>324</v>
+      </c>
+      <c r="K37" t="s">
+        <v>325</v>
+      </c>
+      <c r="L37" t="s">
+        <v>326</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O37" t="s">
+        <v>119</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>328</v>
+      </c>
+      <c r="J38" t="s">
+        <v>329</v>
+      </c>
+      <c r="K38" t="s">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s">
+        <v>331</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>332</v>
+      </c>
+      <c r="O38" t="s">
+        <v>86</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>334</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" t="s">
+        <v>337</v>
+      </c>
+      <c r="L39" t="s">
+        <v>338</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>339</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>340</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>341</v>
+      </c>
+      <c r="J40" t="s">
+        <v>342</v>
+      </c>
+      <c r="K40" t="s">
+        <v>343</v>
+      </c>
+      <c r="L40" t="s">
+        <v>344</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>345</v>
+      </c>
+      <c r="O40" t="s">
+        <v>147</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>347</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>348</v>
+      </c>
+      <c r="J41" t="s">
+        <v>349</v>
+      </c>
+      <c r="K41" t="s">
+        <v>350</v>
+      </c>
+      <c r="L41" t="s">
+        <v>351</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>352</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>353</v>
+      </c>
+      <c r="X41" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>357</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>358</v>
+      </c>
+      <c r="L42" t="s">
+        <v>359</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>352</v>
+      </c>
+      <c r="O42" t="s">
+        <v>86</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>361</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>362</v>
+      </c>
+      <c r="J43" t="s">
+        <v>363</v>
+      </c>
+      <c r="K43" t="s">
+        <v>364</v>
+      </c>
+      <c r="L43" t="s">
+        <v>365</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>352</v>
+      </c>
+      <c r="O43" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>353</v>
+      </c>
+      <c r="X43" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>367</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>368</v>
+      </c>
+      <c r="J44" t="s">
+        <v>369</v>
+      </c>
+      <c r="K44" t="s">
+        <v>370</v>
+      </c>
+      <c r="L44" t="s">
+        <v>371</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>352</v>
+      </c>
+      <c r="O44" t="s">
+        <v>274</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" t="s">
+        <v>374</v>
+      </c>
+      <c r="K45" t="s">
+        <v>375</v>
+      </c>
+      <c r="L45" t="s">
+        <v>376</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>377</v>
+      </c>
+      <c r="X45" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>380</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>381</v>
+      </c>
+      <c r="J46" t="s">
+        <v>382</v>
+      </c>
+      <c r="K46" t="s">
+        <v>383</v>
+      </c>
+      <c r="L46" t="s">
+        <v>384</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>385</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>386</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>387</v>
+      </c>
+      <c r="J47" t="s">
+        <v>388</v>
+      </c>
+      <c r="K47" t="s">
+        <v>389</v>
+      </c>
+      <c r="L47" t="s">
+        <v>390</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>391</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>392</v>
+      </c>
+      <c r="X47" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>396</v>
+      </c>
+      <c r="J48" t="s">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s">
+        <v>399</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>400</v>
+      </c>
+      <c r="O48" t="s">
+        <v>147</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>401</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>402</v>
+      </c>
+      <c r="J49" t="s">
+        <v>403</v>
+      </c>
+      <c r="K49" t="s">
+        <v>404</v>
+      </c>
+      <c r="L49" t="s">
+        <v>405</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>406</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>408</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>409</v>
+      </c>
+      <c r="J50" t="s">
+        <v>410</v>
+      </c>
+      <c r="K50" t="s">
+        <v>411</v>
+      </c>
+      <c r="L50" t="s">
+        <v>412</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>413</v>
+      </c>
+      <c r="O50" t="s">
+        <v>274</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>414</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>415</v>
+      </c>
+      <c r="J51" t="s">
+        <v>416</v>
+      </c>
+      <c r="K51" t="s">
+        <v>417</v>
+      </c>
+      <c r="L51" t="s">
+        <v>418</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>413</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>419</v>
+      </c>
+      <c r="X51" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>422</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>423</v>
+      </c>
+      <c r="J52" t="s">
+        <v>424</v>
+      </c>
+      <c r="K52" t="s">
+        <v>425</v>
+      </c>
+      <c r="L52" t="s">
+        <v>426</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>427</v>
+      </c>
+      <c r="O52" t="s">
+        <v>119</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>428</v>
+      </c>
+      <c r="X52" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>431</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>432</v>
+      </c>
+      <c r="J53" t="s">
+        <v>433</v>
+      </c>
+      <c r="K53" t="s">
+        <v>434</v>
+      </c>
+      <c r="L53" t="s">
+        <v>435</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>436</v>
+      </c>
+      <c r="O53" t="s">
+        <v>86</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>437</v>
+      </c>
+      <c r="X53" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>440</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>441</v>
+      </c>
+      <c r="J54" t="s">
+        <v>442</v>
+      </c>
+      <c r="K54" t="s">
+        <v>443</v>
+      </c>
+      <c r="L54" t="s">
+        <v>444</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>445</v>
+      </c>
+      <c r="O54" t="s">
+        <v>119</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>446</v>
+      </c>
+      <c r="X54" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>449</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>450</v>
+      </c>
+      <c r="J55" t="s">
+        <v>451</v>
+      </c>
+      <c r="K55" t="s">
+        <v>452</v>
+      </c>
+      <c r="L55" t="s">
+        <v>453</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>446</v>
+      </c>
+      <c r="X55" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>455</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>456</v>
+      </c>
+      <c r="J56" t="s">
+        <v>457</v>
+      </c>
+      <c r="K56" t="s">
+        <v>458</v>
+      </c>
+      <c r="L56" t="s">
+        <v>459</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>460</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>461</v>
+      </c>
+      <c r="X56" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>464</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>465</v>
+      </c>
+      <c r="J57" t="s">
+        <v>466</v>
+      </c>
+      <c r="K57" t="s">
+        <v>467</v>
+      </c>
+      <c r="L57" t="s">
+        <v>468</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>460</v>
+      </c>
+      <c r="O57" t="s">
+        <v>119</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>461</v>
+      </c>
+      <c r="X57" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>470</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>471</v>
+      </c>
+      <c r="J58" t="s">
+        <v>472</v>
+      </c>
+      <c r="K58" t="s">
+        <v>473</v>
+      </c>
+      <c r="L58" t="s">
+        <v>474</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>475</v>
+      </c>
+      <c r="O58" t="s">
+        <v>119</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>476</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>477</v>
+      </c>
+      <c r="J59" t="s">
+        <v>478</v>
+      </c>
+      <c r="K59" t="s">
+        <v>479</v>
+      </c>
+      <c r="L59" t="s">
+        <v>480</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>481</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>482</v>
+      </c>
+      <c r="X59" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>485</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>486</v>
+      </c>
+      <c r="J60" t="s">
+        <v>487</v>
+      </c>
+      <c r="K60" t="s">
+        <v>488</v>
+      </c>
+      <c r="L60" t="s">
+        <v>489</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>481</v>
+      </c>
+      <c r="O60" t="s">
+        <v>86</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>490</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>491</v>
+      </c>
+      <c r="J61" t="s">
+        <v>492</v>
+      </c>
+      <c r="K61" t="s">
+        <v>493</v>
+      </c>
+      <c r="L61" t="s">
+        <v>494</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>481</v>
+      </c>
+      <c r="O61" t="s">
+        <v>119</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>495</v>
+      </c>
+      <c r="X61" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>498</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>499</v>
+      </c>
+      <c r="J62" t="s">
+        <v>500</v>
+      </c>
+      <c r="K62" t="s">
+        <v>501</v>
+      </c>
+      <c r="L62" t="s">
+        <v>502</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>503</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>505</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>506</v>
+      </c>
+      <c r="J63" t="s">
+        <v>507</v>
+      </c>
+      <c r="K63" t="s">
+        <v>508</v>
+      </c>
+      <c r="L63" t="s">
+        <v>509</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>503</v>
+      </c>
+      <c r="O63" t="s">
+        <v>119</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>510</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>511</v>
+      </c>
+      <c r="J64" t="s">
+        <v>512</v>
+      </c>
+      <c r="K64" t="s">
+        <v>513</v>
+      </c>
+      <c r="L64" t="s">
+        <v>514</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>515</v>
+      </c>
+      <c r="O64" t="s">
+        <v>274</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>517</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>518</v>
+      </c>
+      <c r="J65" t="s">
+        <v>519</v>
+      </c>
+      <c r="K65" t="s">
+        <v>520</v>
+      </c>
+      <c r="L65" t="s">
+        <v>521</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>522</v>
+      </c>
+      <c r="O65" t="s">
+        <v>86</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>523</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>524</v>
+      </c>
+      <c r="J66" t="s">
+        <v>525</v>
+      </c>
+      <c r="K66" t="s">
+        <v>526</v>
+      </c>
+      <c r="L66" t="s">
+        <v>527</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>528</v>
+      </c>
+      <c r="O66" t="s">
+        <v>119</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>530</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>531</v>
+      </c>
+      <c r="J67" t="s">
+        <v>532</v>
+      </c>
+      <c r="K67" t="s">
+        <v>533</v>
+      </c>
+      <c r="L67" t="s">
+        <v>534</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>535</v>
+      </c>
+      <c r="X67" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>538</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>539</v>
+      </c>
+      <c r="J68" t="s">
+        <v>540</v>
+      </c>
+      <c r="K68" t="s">
+        <v>358</v>
+      </c>
+      <c r="L68" t="s">
+        <v>541</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>542</v>
+      </c>
+      <c r="O68" t="s">
+        <v>119</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>543</v>
+      </c>
+      <c r="X68" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>546</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>547</v>
+      </c>
+      <c r="J69" t="s">
+        <v>548</v>
+      </c>
+      <c r="K69" t="s">
+        <v>549</v>
+      </c>
+      <c r="L69" t="s">
+        <v>550</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>542</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>551</v>
+      </c>
+      <c r="X69" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>554</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>555</v>
+      </c>
+      <c r="J70" t="s">
+        <v>556</v>
+      </c>
+      <c r="K70" t="s">
+        <v>557</v>
+      </c>
+      <c r="L70" t="s">
+        <v>558</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>560</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>561</v>
+      </c>
+      <c r="J71" t="s">
+        <v>562</v>
+      </c>
+      <c r="K71" t="s">
+        <v>563</v>
+      </c>
+      <c r="L71" t="s">
+        <v>564</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>565</v>
+      </c>
+      <c r="O71" t="s">
+        <v>119</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>567</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>568</v>
+      </c>
+      <c r="J72" t="s">
+        <v>569</v>
+      </c>
+      <c r="K72" t="s">
+        <v>570</v>
+      </c>
+      <c r="L72" t="s">
+        <v>571</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>565</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>572</v>
+      </c>
+      <c r="X72" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>575</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>576</v>
+      </c>
+      <c r="J73" t="s">
+        <v>577</v>
+      </c>
+      <c r="K73" t="s">
+        <v>578</v>
+      </c>
+      <c r="L73" t="s">
+        <v>579</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>565</v>
+      </c>
+      <c r="O73" t="s">
+        <v>147</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>572</v>
+      </c>
+      <c r="X73" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>581</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>582</v>
+      </c>
+      <c r="J74" t="s">
+        <v>583</v>
+      </c>
+      <c r="K74" t="s">
+        <v>584</v>
+      </c>
+      <c r="L74" t="s">
+        <v>585</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>586</v>
+      </c>
+      <c r="O74" t="s">
+        <v>119</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>572</v>
+      </c>
+      <c r="X74" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>588</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>589</v>
+      </c>
+      <c r="J75" t="s">
+        <v>590</v>
+      </c>
+      <c r="K75" t="s">
+        <v>591</v>
+      </c>
+      <c r="L75" t="s">
+        <v>592</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>593</v>
+      </c>
+      <c r="O75" t="s">
+        <v>86</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>572</v>
+      </c>
+      <c r="X75" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>595</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>596</v>
+      </c>
+      <c r="J76" t="s">
+        <v>597</v>
+      </c>
+      <c r="K76" t="s">
+        <v>598</v>
+      </c>
+      <c r="L76" t="s">
+        <v>599</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>600</v>
+      </c>
+      <c r="O76" t="s">
+        <v>119</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>572</v>
+      </c>
+      <c r="X76" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>603</v>
+      </c>
+      <c r="J77" t="s">
+        <v>604</v>
+      </c>
+      <c r="K77" t="s">
+        <v>605</v>
+      </c>
+      <c r="L77" t="s">
+        <v>606</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>607</v>
+      </c>
+      <c r="O77" t="s">
+        <v>86</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>608</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>609</v>
+      </c>
+      <c r="J78" t="s">
+        <v>610</v>
+      </c>
+      <c r="K78" t="s">
+        <v>611</v>
+      </c>
+      <c r="L78" t="s">
+        <v>612</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>613</v>
+      </c>
+      <c r="O78" t="s">
+        <v>119</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>614</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>615</v>
+      </c>
+      <c r="J79" t="s">
+        <v>616</v>
+      </c>
+      <c r="K79" t="s">
+        <v>617</v>
+      </c>
+      <c r="L79" t="s">
+        <v>618</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>619</v>
+      </c>
+      <c r="O79" t="s">
+        <v>86</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>620</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>621</v>
+      </c>
+      <c r="J80" t="s">
+        <v>622</v>
+      </c>
+      <c r="K80" t="s">
+        <v>623</v>
+      </c>
+      <c r="L80" t="s">
+        <v>624</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>625</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>627</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>628</v>
+      </c>
+      <c r="J81" t="s">
+        <v>629</v>
+      </c>
+      <c r="K81" t="s">
+        <v>630</v>
+      </c>
+      <c r="L81" t="s">
+        <v>631</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>632</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>633</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>634</v>
+      </c>
+      <c r="J82" t="s">
+        <v>635</v>
+      </c>
+      <c r="K82" t="s">
+        <v>636</v>
+      </c>
+      <c r="L82" t="s">
+        <v>637</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>638</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>640</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>641</v>
+      </c>
+      <c r="J83" t="s">
+        <v>642</v>
+      </c>
+      <c r="K83" t="s">
+        <v>643</v>
+      </c>
+      <c r="L83" t="s">
+        <v>644</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>645</v>
+      </c>
+      <c r="O83" t="s">
+        <v>119</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>647</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>648</v>
+      </c>
+      <c r="J84" t="s">
+        <v>649</v>
+      </c>
+      <c r="K84" t="s">
+        <v>650</v>
+      </c>
+      <c r="L84" t="s">
+        <v>651</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>652</v>
+      </c>
+      <c r="O84" t="s">
+        <v>119</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>653</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>654</v>
+      </c>
+      <c r="J85" t="s">
+        <v>655</v>
+      </c>
+      <c r="K85" t="s">
+        <v>656</v>
+      </c>
+      <c r="L85" t="s">
+        <v>657</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>658</v>
+      </c>
+      <c r="O85" t="s">
+        <v>86</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39516</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>659</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>660</v>
+      </c>
+      <c r="J86" t="s">
+        <v>661</v>
+      </c>
+      <c r="K86" t="s">
+        <v>662</v>
+      </c>
+      <c r="L86" t="s">
+        <v>663</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>664</v>
       </c>
     </row>
   </sheetData>
